--- a/Bass.xlsx
+++ b/Bass.xlsx
@@ -134,13 +134,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="[&gt;0.5]0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
     <numFmt numFmtId="166" formatCode="0.000_ ;\-0.000\ "/>
     <numFmt numFmtId="167" formatCode="0.0000_ ;\-0.0000\ "/>
     <numFmt numFmtId="168" formatCode="0.0000000_ ;\-0.0000000\ "/>
     <numFmt numFmtId="169" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -299,7 +300,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -345,6 +346,8 @@
     <xf numFmtId="165" fontId="4" fillId="6" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="C06_Figs" xfId="1"/>
@@ -837,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="442556528"/>
-        <c:axId val="442576656"/>
+        <c:axId val="1464513984"/>
+        <c:axId val="1464512352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442556528"/>
+        <c:axId val="1464513984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442576656"/>
+        <c:crossAx val="1464512352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -892,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442576656"/>
+        <c:axId val="1464512352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +946,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442556528"/>
+        <c:crossAx val="1464513984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1296,11 +1299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515035296"/>
-        <c:axId val="515022784"/>
+        <c:axId val="1464493312"/>
+        <c:axId val="1464513440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515035296"/>
+        <c:axId val="1464493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,7 +1345,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515022784"/>
+        <c:crossAx val="1464513440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1350,7 +1353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515022784"/>
+        <c:axId val="1464513440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,7 +1404,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515035296"/>
+        <c:crossAx val="1464493312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1844,11 +1847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515023872"/>
-        <c:axId val="515012992"/>
+        <c:axId val="1464512896"/>
+        <c:axId val="1464495488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515023872"/>
+        <c:axId val="1464512896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,7 +1893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515012992"/>
+        <c:crossAx val="1464495488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1898,7 +1901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515012992"/>
+        <c:axId val="1464495488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1949,7 +1952,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515023872"/>
+        <c:crossAx val="1464512896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2506,11 +2509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515020064"/>
-        <c:axId val="515039104"/>
+        <c:axId val="1464507456"/>
+        <c:axId val="1464487872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515020064"/>
+        <c:axId val="1464507456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2556,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515039104"/>
+        <c:crossAx val="1464487872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2561,7 +2564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515039104"/>
+        <c:axId val="1464487872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515020064"/>
+        <c:crossAx val="1464507456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3055,11 +3058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515040192"/>
-        <c:axId val="515041824"/>
+        <c:axId val="1464509088"/>
+        <c:axId val="1464494400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515040192"/>
+        <c:axId val="1464509088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3101,7 +3104,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515041824"/>
+        <c:crossAx val="1464494400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3109,7 +3112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515041824"/>
+        <c:axId val="1464494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3163,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515040192"/>
+        <c:crossAx val="1464509088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3513,11 +3516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515024960"/>
-        <c:axId val="515023328"/>
+        <c:axId val="1464500928"/>
+        <c:axId val="1464508000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515024960"/>
+        <c:axId val="1464500928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3559,7 +3562,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515023328"/>
+        <c:crossAx val="1464508000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3567,7 +3570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515023328"/>
+        <c:axId val="1464508000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3618,7 +3621,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515024960"/>
+        <c:crossAx val="1464500928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4061,11 +4064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515028768"/>
-        <c:axId val="515014080"/>
+        <c:axId val="1464514528"/>
+        <c:axId val="1464508544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515028768"/>
+        <c:axId val="1464514528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4107,7 +4110,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515014080"/>
+        <c:crossAx val="1464508544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4115,7 +4118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515014080"/>
+        <c:axId val="1464508544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4166,7 +4169,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515028768"/>
+        <c:crossAx val="1464514528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4809,7 +4812,7 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
-                <c:pt idx="0">
+                <c:pt idx="0" formatCode="0.0">
                   <c:v>11.690199945981607</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -4993,11 +4996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="442567952"/>
-        <c:axId val="442557616"/>
+        <c:axId val="1464499840"/>
+        <c:axId val="1464498208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442567952"/>
+        <c:axId val="1464499840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5040,7 +5043,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442557616"/>
+        <c:crossAx val="1464498208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5048,7 +5051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442557616"/>
+        <c:axId val="1464498208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5099,7 +5102,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442567952"/>
+        <c:crossAx val="1464499840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5656,11 +5659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="442558160"/>
-        <c:axId val="442558704"/>
+        <c:axId val="1464486784"/>
+        <c:axId val="1464491680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442558160"/>
+        <c:axId val="1464486784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5703,7 +5706,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442558704"/>
+        <c:crossAx val="1464491680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5711,7 +5714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442558704"/>
+        <c:axId val="1464491680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,7 +5765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442558160"/>
+        <c:crossAx val="1464486784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6596,11 +6599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="442560880"/>
-        <c:axId val="442563056"/>
+        <c:axId val="1464510720"/>
+        <c:axId val="1464485152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442560880"/>
+        <c:axId val="1464510720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6643,7 +6646,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442563056"/>
+        <c:crossAx val="1464485152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6651,7 +6654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="442563056"/>
+        <c:axId val="1464485152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +6705,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442560880"/>
+        <c:crossAx val="1464510720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7259,11 +7262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="442563600"/>
-        <c:axId val="1961546240"/>
+        <c:axId val="1464489504"/>
+        <c:axId val="1464493856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="442563600"/>
+        <c:axId val="1464489504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7306,7 +7309,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961546240"/>
+        <c:crossAx val="1464493856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7314,7 +7317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1961546240"/>
+        <c:axId val="1464493856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7365,7 +7368,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="442563600"/>
+        <c:crossAx val="1464489504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7808,11 +7811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1961559840"/>
-        <c:axId val="515036928"/>
+        <c:axId val="1464505824"/>
+        <c:axId val="1464499296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1961559840"/>
+        <c:axId val="1464505824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7854,7 +7857,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515036928"/>
+        <c:crossAx val="1464499296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7862,7 +7865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515036928"/>
+        <c:axId val="1464499296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7913,7 +7916,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1961559840"/>
+        <c:crossAx val="1464505824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8470,11 +8473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515013536"/>
-        <c:axId val="515036384"/>
+        <c:axId val="1464490592"/>
+        <c:axId val="1464492224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515013536"/>
+        <c:axId val="1464490592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8517,7 +8520,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515036384"/>
+        <c:crossAx val="1464492224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8525,7 +8528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515036384"/>
+        <c:axId val="1464492224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8576,7 +8579,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515013536"/>
+        <c:crossAx val="1464490592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9019,11 +9022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515026592"/>
-        <c:axId val="515018432"/>
+        <c:axId val="1464487328"/>
+        <c:axId val="1464492768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515026592"/>
+        <c:axId val="1464487328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9065,7 +9068,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515018432"/>
+        <c:crossAx val="1464492768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9073,7 +9076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515018432"/>
+        <c:axId val="1464492768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9124,7 +9127,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515026592"/>
+        <c:crossAx val="1464487328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9477,11 +9480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="515024416"/>
-        <c:axId val="515029856"/>
+        <c:axId val="1464500384"/>
+        <c:axId val="1464511808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="515024416"/>
+        <c:axId val="1464500384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9523,7 +9526,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515029856"/>
+        <c:crossAx val="1464511808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9531,7 +9534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="515029856"/>
+        <c:axId val="1464511808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9582,7 +9585,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="515024416"/>
+        <c:crossAx val="1464500384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18007,23 +18010,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1495425</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="16" name="Диаграмма 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18043,23 +18046,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18097,7 +18100,7 @@
         <xdr:cNvPr id="19" name="Диаграмма 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18133,7 +18136,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18171,7 +18174,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18207,7 +18210,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18245,7 +18248,7 @@
         <xdr:cNvPr id="28" name="Диаграмма 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18283,7 +18286,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18321,7 +18324,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18357,7 +18360,7 @@
         <xdr:cNvPr id="32" name="Диаграмма 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18393,7 +18396,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18431,7 +18434,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18469,7 +18472,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18507,7 +18510,7 @@
         <xdr:cNvPr id="40" name="Диаграмма 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18545,7 +18548,7 @@
         <xdr:cNvPr id="41" name="Диаграмма 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18832,19 +18835,21 @@
   <dimension ref="A1:BM172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="A7:E7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="3.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.140625" style="21"/>
     <col min="54" max="54" width="9.140625" style="21"/>
@@ -19123,7 +19128,7 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="25">
         <f>J2-I2</f>
         <v>0.94267721695959672</v>
       </c>
@@ -19580,7 +19585,7 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="25">
         <f>I2+J4</f>
         <v>11.690199945981607</v>
       </c>
@@ -20004,6 +20009,9 @@
         <v>2369.9071494895461</v>
       </c>
     </row>
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="S13" s="26"/>
+    </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>10</v>
@@ -20537,11 +20545,11 @@
         <v>5.1452611216708775</v>
       </c>
       <c r="K30">
-        <f t="shared" ref="K30:BL30" si="6">(K31-K27)^2</f>
+        <f>(K31-K27)^2</f>
         <v>12.647280752030237</v>
       </c>
       <c r="L30">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K30:BL30" si="6">(L31-L27)^2</f>
         <v>16.246406483635912</v>
       </c>
       <c r="M30">

--- a/Bass.xlsx
+++ b/Bass.xlsx
@@ -747,79 +747,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>11.690199945981607</c:v>
+                  <c:v>14.738042360618067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.964823659916885</c:v>
+                  <c:v>22.300206709029137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.291321529264902</c:v>
+                  <c:v>31.129188516355207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.92323178941448</c:v>
+                  <c:v>41.435354652654539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.172263258934805</c:v>
+                  <c:v>53.463331643252502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.420010353403512</c:v>
+                  <c:v>67.497339713574775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.131108823191255</c:v>
+                  <c:v>83.867267386133477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.867449908293295</c:v>
+                  <c:v>102.95555567150683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.302641412239865</c:v>
+                  <c:v>125.20495352431766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.23525145838353</c:v>
+                  <c:v>151.12719149070281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147.59842960358714</c:v>
+                  <c:v>181.31259533659744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183.46222369758252</c:v>
+                  <c:v>216.44062199498157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>227.0233142154249</c:v>
+                  <c:v>257.29124141937052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>279.57512477706149</c:v>
+                  <c:v>304.75700370228799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>342.44974927215549</c:v>
+                  <c:v>359.85551370203063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>416.92267475675675</c:v>
+                  <c:v>423.74187691824199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>504.07319513941388</c:v>
+                  <c:v>497.72047133196008</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>604.59944731967084</c:v>
+                  <c:v>583.25513158493698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>718.59879483029908</c:v>
+                  <c:v>681.9764975299629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>845.34211437263775</c:v>
+                  <c:v>795.68487716347317</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>983.09140213488149</c:v>
+                  <c:v>926.34651200993994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1129.0259971432165</c:v>
+                  <c:v>1076.0806346147012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1279.3412108049199</c:v>
+                  <c:v>1247.1342202497176</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1429.5528759664153</c:v>
+                  <c:v>1441.8409390786553</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1574.9819882313061</c:v>
+                  <c:v>1662.5606346848947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464513984"/>
-        <c:axId val="1464512352"/>
+        <c:axId val="-1133283360"/>
+        <c:axId val="-1133270848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464513984"/>
+        <c:axId val="-1133283360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464512352"/>
+        <c:crossAx val="-1133270848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464512352"/>
+        <c:axId val="-1133270848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464513984"/>
+        <c:crossAx val="-1133283360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,11 +1299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464493312"/>
-        <c:axId val="1464513440"/>
+        <c:axId val="-1190735024"/>
+        <c:axId val="-1134938544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464493312"/>
+        <c:axId val="-1190735024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1345,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464513440"/>
+        <c:crossAx val="-1134938544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464513440"/>
+        <c:axId val="-1134938544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1404,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464493312"/>
+        <c:crossAx val="-1190735024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,11 +1847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464512896"/>
-        <c:axId val="1464495488"/>
+        <c:axId val="-1133938512"/>
+        <c:axId val="-379956496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464512896"/>
+        <c:axId val="-1133938512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464495488"/>
+        <c:crossAx val="-379956496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1901,7 +1901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464495488"/>
+        <c:axId val="-379956496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1952,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464512896"/>
+        <c:crossAx val="-1133938512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464507456"/>
-        <c:axId val="1464487872"/>
+        <c:axId val="-379938000"/>
+        <c:axId val="-379949968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464507456"/>
+        <c:axId val="-379938000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2556,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464487872"/>
+        <c:crossAx val="-379949968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,7 +2564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464487872"/>
+        <c:axId val="-379949968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464507456"/>
+        <c:crossAx val="-379938000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,11 +3058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464509088"/>
-        <c:axId val="1464494400"/>
+        <c:axId val="-379936368"/>
+        <c:axId val="-379926576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464509088"/>
+        <c:axId val="-379936368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3104,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464494400"/>
+        <c:crossAx val="-379926576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +3112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464494400"/>
+        <c:axId val="-379926576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3163,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464509088"/>
+        <c:crossAx val="-379936368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,11 +3516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464500928"/>
-        <c:axId val="1464508000"/>
+        <c:axId val="-379948880"/>
+        <c:axId val="-379933104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464500928"/>
+        <c:axId val="-379948880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3562,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464508000"/>
+        <c:crossAx val="-379933104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464508000"/>
+        <c:axId val="-379933104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3621,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464500928"/>
+        <c:crossAx val="-379948880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4064,11 +4064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464514528"/>
-        <c:axId val="1464508544"/>
+        <c:axId val="-379946160"/>
+        <c:axId val="-379941264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464514528"/>
+        <c:axId val="-379946160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4110,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464508544"/>
+        <c:crossAx val="-379941264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4118,7 +4118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464508544"/>
+        <c:axId val="-379941264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4169,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464514528"/>
+        <c:crossAx val="-379946160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,169 +4813,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0" formatCode="0.0">
-                  <c:v>11.690199945981607</c:v>
+                  <c:v>14.738042360618067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.964823659916885</c:v>
+                  <c:v>22.300206709029137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.291321529264902</c:v>
+                  <c:v>31.129188516355207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.92323178941448</c:v>
+                  <c:v>41.435354652654539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.172263258934805</c:v>
+                  <c:v>53.463331643252502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.420010353403512</c:v>
+                  <c:v>67.497339713574775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.131108823191255</c:v>
+                  <c:v>83.867267386133477</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.867449908293295</c:v>
+                  <c:v>102.95555567150683</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.302641412239865</c:v>
+                  <c:v>125.20495352431766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.23525145838353</c:v>
+                  <c:v>151.12719149070281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147.59842960358714</c:v>
+                  <c:v>181.31259533659744</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183.46222369758252</c:v>
+                  <c:v>216.44062199498157</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>227.0233142154249</c:v>
+                  <c:v>257.29124141937052</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>279.57512477706149</c:v>
+                  <c:v>304.75700370228799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>342.44974927215549</c:v>
+                  <c:v>359.85551370203063</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>416.92267475675675</c:v>
+                  <c:v>423.74187691824199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>504.07319513941388</c:v>
+                  <c:v>497.72047133196008</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>604.59944731967084</c:v>
+                  <c:v>583.25513158493698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>718.59879483029908</c:v>
+                  <c:v>681.9764975299629</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>845.34211437263775</c:v>
+                  <c:v>795.68487716347317</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>983.09140213488149</c:v>
+                  <c:v>926.34651200993994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1129.0259971432165</c:v>
+                  <c:v>1076.0806346147012</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1279.3412108049199</c:v>
+                  <c:v>1247.1342202497176</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1429.5528759664153</c:v>
+                  <c:v>1441.8409390786553</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1574.9819882313061</c:v>
+                  <c:v>1662.5606346848947</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1711.3243707808265</c:v>
+                  <c:v>1911.5958629126933</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1835.1657844978288</c:v>
+                  <c:v>2191.0828403439068</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1944.3126283749004</c:v>
+                  <c:v>2502.8558191988859</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2037.8726708671506</c:v>
+                  <c:v>2848.2866483881539</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2116.1060306320983</c:v>
+                  <c:v>3228.1052184931768</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2180.1304062921727</c:v>
+                  <c:v>3642.2115199380237</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2231.5824288034933</c:v>
+                  <c:v>4089.4957099967314</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2272.3150676194236</c:v>
+                  <c:v>4567.6879610248006</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2304.1723705956611</c:v>
+                  <c:v>5073.263549940526</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2328.8485119383822</c:v>
+                  <c:v>5601.4289524269088</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2347.8176481094038</c:v>
+                  <c:v>6146.2100609708823</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2362.3138598502587</c:v>
+                  <c:v>6700.6532623963576</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2373.3415800356106</c:v>
+                  <c:v>7257.134639193202</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2381.7015358651161</c:v>
+                  <c:v>7807.7544670977859</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2388.0222982124728</c:v>
+                  <c:v>8344.7774859378314</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2392.791657102473</c:v>
+                  <c:v>8861.0686412822361</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2396.3849153412702</c:v>
+                  <c:v>9350.4725869117119</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2399.0889790054007</c:v>
+                  <c:v>9808.0941603366646</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2401.1221248847123</c:v>
+                  <c:v>10230.454190301858</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2402.6498191971564</c:v>
+                  <c:v>10615.515874477849</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2403.7971562135453</c:v>
+                  <c:v>10962.596339631291</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2404.6585171717616</c:v>
+                  <c:v>11272.191698981684</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2405.3050028410421</c:v>
+                  <c:v>11545.750026280177</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2405.7901150179114</c:v>
+                  <c:v>11785.425618864894</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2406.1540782899629</c:v>
+                  <c:v>11993.841809369304</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2406.4271156014543</c:v>
+                  <c:v>12173.881065905834</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2406.631924212244</c:v>
+                  <c:v>12328.512519653335</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2406.7855435001516</c:v>
+                  <c:v>12460.659895618353</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2406.9007618820792</c:v>
+                  <c:v>12573.107751829022</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2406.9871753950315</c:v>
+                  <c:v>12668.44094864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,11 +4996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464499840"/>
-        <c:axId val="1464498208"/>
+        <c:axId val="-1133275200"/>
+        <c:axId val="-1133270304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464499840"/>
+        <c:axId val="-1133275200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,7 +5043,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464498208"/>
+        <c:crossAx val="-1133270304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5051,7 +5051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464498208"/>
+        <c:axId val="-1133270304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5102,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464499840"/>
+        <c:crossAx val="-1133275200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5659,11 +5659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464486784"/>
-        <c:axId val="1464491680"/>
+        <c:axId val="-1133267040"/>
+        <c:axId val="-1133262688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464486784"/>
+        <c:axId val="-1133267040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5706,7 +5706,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464491680"/>
+        <c:crossAx val="-1133262688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5714,7 +5714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464491680"/>
+        <c:axId val="-1133262688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464486784"/>
+        <c:crossAx val="-1133267040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6599,11 +6599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464510720"/>
-        <c:axId val="1464485152"/>
+        <c:axId val="-1133289888"/>
+        <c:axId val="-1133260512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464510720"/>
+        <c:axId val="-1133289888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,7 +6646,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464485152"/>
+        <c:crossAx val="-1133260512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6654,7 +6654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464485152"/>
+        <c:axId val="-1133260512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,7 +6705,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464510720"/>
+        <c:crossAx val="-1133289888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7262,11 +7262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464489504"/>
-        <c:axId val="1464493856"/>
+        <c:axId val="-1133281184"/>
+        <c:axId val="-1133279008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464489504"/>
+        <c:axId val="-1133281184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7309,7 +7309,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464493856"/>
+        <c:crossAx val="-1133279008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7317,7 +7317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464493856"/>
+        <c:axId val="-1133279008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7368,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464489504"/>
+        <c:crossAx val="-1133281184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7811,11 +7811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464505824"/>
-        <c:axId val="1464499296"/>
+        <c:axId val="-1133277920"/>
+        <c:axId val="-1133269760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464505824"/>
+        <c:axId val="-1133277920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7857,7 +7857,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464499296"/>
+        <c:crossAx val="-1133269760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7865,7 +7865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464499296"/>
+        <c:axId val="-1133269760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,7 +7916,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464505824"/>
+        <c:crossAx val="-1133277920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8473,11 +8473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464490592"/>
-        <c:axId val="1464492224"/>
+        <c:axId val="-1133269216"/>
+        <c:axId val="-1133268128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464490592"/>
+        <c:axId val="-1133269216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8520,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464492224"/>
+        <c:crossAx val="-1133268128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8528,7 +8528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464492224"/>
+        <c:axId val="-1133268128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8579,7 +8579,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464490592"/>
+        <c:crossAx val="-1133269216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9022,11 +9022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464487328"/>
-        <c:axId val="1464492768"/>
+        <c:axId val="-1133266496"/>
+        <c:axId val="-1133265952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464487328"/>
+        <c:axId val="-1133266496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9068,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464492768"/>
+        <c:crossAx val="-1133265952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9076,7 +9076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464492768"/>
+        <c:axId val="-1133265952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9127,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464487328"/>
+        <c:crossAx val="-1133266496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9480,11 +9480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1464500384"/>
-        <c:axId val="1464511808"/>
+        <c:axId val="-1133264320"/>
+        <c:axId val="-1134277856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1464500384"/>
+        <c:axId val="-1133264320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9526,7 +9526,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464511808"/>
+        <c:crossAx val="-1134277856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9534,7 +9534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1464511808"/>
+        <c:axId val="-1134277856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,7 +9585,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1464500384"/>
+        <c:crossAx val="-1133264320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18026,7 +18026,7 @@
         <xdr:cNvPr id="16" name="Диаграмма 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18062,7 +18062,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18100,7 +18100,7 @@
         <xdr:cNvPr id="19" name="Диаграмма 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18136,7 +18136,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18174,7 +18174,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18210,7 +18210,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18248,7 +18248,7 @@
         <xdr:cNvPr id="28" name="Диаграмма 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18286,7 +18286,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18324,7 +18324,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18360,7 +18360,7 @@
         <xdr:cNvPr id="32" name="Диаграмма 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18396,7 +18396,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18434,7 +18434,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18472,7 +18472,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18510,7 +18510,7 @@
         <xdr:cNvPr id="40" name="Диаграмма 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18548,7 +18548,7 @@
         <xdr:cNvPr id="41" name="Диаграмма 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18835,7 +18835,7 @@
   <dimension ref="A1:BM172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18857,6 +18857,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="11">
+        <v>1</v>
+      </c>
       <c r="I1" s="11">
         <v>1995</v>
       </c>
@@ -19033,6 +19036,9 @@
       <c r="B2" t="s">
         <v>21</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
       <c r="I2" s="12">
         <v>8.2619234436363644</v>
       </c>
@@ -19125,6 +19131,9 @@
       <c r="G3" t="s">
         <v>4</v>
       </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
       <c r="I3">
         <v>0</v>
       </c>
@@ -19231,13 +19240,13 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>5.7269742584067636E-4</v>
+        <v>3.8657292856234069E-4</v>
       </c>
       <c r="B4" s="3">
-        <v>0.24951325910154701</v>
+        <v>0.16838079924216762</v>
       </c>
       <c r="C4" s="3">
-        <v>2407.2463466284489</v>
+        <v>13164.492848869437</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -19247,223 +19256,223 @@
       </c>
       <c r="J4">
         <f>$A4*$C4+($B4-$A4)*I2-($B4/$C4)*(I2^2)</f>
-        <v>3.4282765023452435</v>
+        <v>6.4761189169817017</v>
       </c>
       <c r="K4">
         <f>$A4*$C4+($B4-$A4)*J6-($B4/$C4)*(J6^2)</f>
-        <v>4.2746237139352772</v>
+        <v>7.562164348411069</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:BL4" si="1">$A4*$C4+($B4-$A4)*K6-($B4/$C4)*(K6^2)</f>
-        <v>5.3264978693480174</v>
+        <v>8.8289818073260715</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>6.631910260149577</v>
+        <v>10.306166136299332</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>8.2490314695203217</v>
+        <v>12.027976990597963</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>10.247747094468703</v>
+        <v>14.034008070322278</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>12.711098469787744</v>
+        <v>16.36992767255871</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>15.736341085102037</v>
+        <v>19.088288285373356</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>19.435191503946577</v>
+        <v>22.249397852810826</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>23.932610046143662</v>
+        <v>25.922237966385154</v>
       </c>
       <c r="T4">
         <f t="shared" si="1"/>
-        <v>29.363178145203602</v>
+        <v>30.18540384589463</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>35.863794093995381</v>
+        <v>35.12802665838413</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>43.561090517842381</v>
+        <v>40.850619424388938</v>
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>52.551810561636586</v>
+        <v>47.465762282917495</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>62.874624495094011</v>
+        <v>55.098509999742653</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>74.472925484601262</v>
+        <v>63.886363216211343</v>
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
-        <v>87.150520382657106</v>
+        <v>73.978594413718113</v>
       </c>
       <c r="AA4">
         <f t="shared" si="1"/>
-        <v>100.52625218025693</v>
+        <v>85.534660252976906</v>
       </c>
       <c r="AB4">
         <f t="shared" si="1"/>
-        <v>113.99934751062827</v>
+        <v>98.721365945025937</v>
       </c>
       <c r="AC4">
         <f t="shared" si="1"/>
-        <v>126.74331954233867</v>
+        <v>113.70837963351022</v>
       </c>
       <c r="AD4">
         <f t="shared" si="1"/>
-        <v>137.74928776224368</v>
+        <v>130.66163484646671</v>
       </c>
       <c r="AE4">
         <f t="shared" si="1"/>
-        <v>145.93459500833507</v>
+        <v>149.73412260476135</v>
       </c>
       <c r="AF4">
         <f t="shared" si="1"/>
-        <v>150.31521366170335</v>
+        <v>171.05358563501642</v>
       </c>
       <c r="AG4">
         <f t="shared" si="1"/>
-        <v>150.21166516149549</v>
+        <v>194.70671882893777</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>145.42911226489079</v>
+        <v>220.71969560623941</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
-        <v>136.34238254952038</v>
+        <v>249.03522822779865</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="1"/>
-        <v>123.8414137170023</v>
+        <v>279.48697743121346</v>
       </c>
       <c r="AK4">
         <f t="shared" si="1"/>
-        <v>109.14684387707166</v>
+        <v>311.77297885497893</v>
       </c>
       <c r="AL4">
         <f t="shared" si="1"/>
-        <v>93.560042492250091</v>
+        <v>345.43082918926797</v>
       </c>
       <c r="AM4">
         <f t="shared" si="1"/>
-        <v>78.233359764947579</v>
+        <v>379.81857010502273</v>
       </c>
       <c r="AN4">
         <f t="shared" si="1"/>
-        <v>64.024375660074611</v>
+        <v>414.10630144484679</v>
       </c>
       <c r="AO4">
         <f t="shared" si="1"/>
-        <v>51.452022511320706</v>
+        <v>447.28419005870757</v>
       </c>
       <c r="AP4">
         <f t="shared" si="1"/>
-        <v>40.732638815930159</v>
+        <v>478.19225102806951</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="1"/>
-        <v>31.857302976237406</v>
+        <v>505.57558891572506</v>
       </c>
       <c r="AR4" s="21">
         <f t="shared" si="1"/>
-        <v>24.676141342720939</v>
+        <v>528.16540248638273</v>
       </c>
       <c r="AS4">
         <f t="shared" si="1"/>
-        <v>18.96913617102166</v>
+        <v>544.78110854397323</v>
       </c>
       <c r="AT4">
         <f t="shared" si="1"/>
-        <v>14.496211740855074</v>
+        <v>554.44320142547519</v>
       </c>
       <c r="AU4">
         <f t="shared" si="1"/>
-        <v>11.027720185351654</v>
+        <v>556.48137679684487</v>
       </c>
       <c r="AV4">
         <f t="shared" si="1"/>
-        <v>8.3599558295054521</v>
+        <v>550.61982790458342</v>
       </c>
       <c r="AW4">
         <f t="shared" si="1"/>
-        <v>6.3207623473568901</v>
+        <v>537.02301884004612</v>
       </c>
       <c r="AX4">
         <f t="shared" si="1"/>
-        <v>4.769358890000035</v>
+        <v>516.29115534440393</v>
       </c>
       <c r="AY4">
         <f t="shared" si="1"/>
-        <v>3.5932582387971479</v>
+        <v>489.40394562947552</v>
       </c>
       <c r="AZ4">
         <f t="shared" si="1"/>
-        <v>2.7040636641303308</v>
+        <v>457.62157342495311</v>
       </c>
       <c r="BA4">
         <f t="shared" si="1"/>
-        <v>2.0331458793116326</v>
+        <v>422.36002996519346</v>
       </c>
       <c r="BB4" s="21">
         <f t="shared" si="1"/>
-        <v>1.5276943124439413</v>
+        <v>385.06168417599088</v>
       </c>
       <c r="BC4">
         <f t="shared" si="1"/>
-        <v>1.1473370163892014</v>
+        <v>347.08046515344199</v>
       </c>
       <c r="BD4">
         <f t="shared" si="1"/>
-        <v>0.86136095821598246</v>
+        <v>309.59535935039298</v>
       </c>
       <c r="BE4">
         <f t="shared" si="1"/>
-        <v>0.64648566928042328</v>
+        <v>273.55832729849226</v>
       </c>
       <c r="BF4">
         <f t="shared" si="1"/>
-        <v>0.48511217686916552</v>
+        <v>239.67559258471806</v>
       </c>
       <c r="BG4">
         <f t="shared" si="1"/>
-        <v>0.36396327205170564</v>
+        <v>208.41619050441</v>
       </c>
       <c r="BH4">
         <f t="shared" si="1"/>
-        <v>0.273037311491521</v>
+        <v>180.03925653653118</v>
       </c>
       <c r="BI4">
         <f t="shared" si="1"/>
-        <v>0.20480861078965518</v>
+        <v>154.6314537475007</v>
       </c>
       <c r="BJ4">
         <f t="shared" si="1"/>
-        <v>0.15361928790741786</v>
+        <v>132.14737596501845</v>
       </c>
       <c r="BK4">
         <f t="shared" si="1"/>
-        <v>0.11521838192766154</v>
+        <v>112.44785621066899</v>
       </c>
       <c r="BL4" s="21">
         <f t="shared" si="1"/>
-        <v>8.6413512952276506E-2</v>
+        <v>95.333196810977142</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
@@ -19472,110 +19481,110 @@
       </c>
       <c r="F5">
         <f>SUM(J5:AH5)</f>
-        <v>4722.4972774076768</v>
+        <v>32814.800646621421</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
         <f>(J6-J2)^2</f>
-        <v>6.1782038075096359</v>
+        <v>30.618977047543535</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:AH5" si="2">(K6-K2)^2</f>
-        <v>15.578865759009798</v>
+        <f>(K6-K2)^2</f>
+        <v>105.72754903225159</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
-        <v>28.837557951832832</v>
+        <f t="shared" ref="K5:AH5" si="2">(L6-L2)^2</f>
+        <v>231.28108161305283</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>44.984624101886247</v>
+        <v>408.81526599740647</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>22.579875944761309</v>
+        <v>485.88931164074546</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>64.473808199563933</v>
+        <v>847.21091544771036</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>46.244445083006283</v>
+        <v>994.5499113482316</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>142.94724175622483</v>
+        <v>1603.5347797240941</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>84.390844935022798</v>
+        <v>1607.1087662157304</v>
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
-        <v>200.2613210057531</v>
+        <v>2213.0731787913483</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>217.24441676696739</v>
+        <v>2347.7299662262176</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>163.31825583580229</v>
+        <v>2093.794693467953</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>41.258385435499804</v>
+        <v>1346.2438833841763</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>12.635170339688401</v>
+        <v>825.78513354524569</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>16.122414581705371</v>
+        <v>179.30526968048042</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
-        <v>550.48502197187997</v>
+        <v>276.99660760209986</v>
       </c>
       <c r="Z5">
         <f t="shared" si="2"/>
-        <v>701.25534167556452</v>
+        <v>1078.0682738607081</v>
       </c>
       <c r="AA5">
         <f t="shared" si="2"/>
-        <v>954.35296287092081</v>
+        <v>2728.6957511949995</v>
       </c>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>163.65916138983113</v>
+        <v>567.8385533222023</v>
       </c>
       <c r="AC5">
         <f t="shared" si="2"/>
-        <v>193.55559973107609</v>
+        <v>1277.6915218898632</v>
       </c>
       <c r="AD5">
         <f t="shared" si="2"/>
-        <v>435.30677664182627</v>
+        <v>1287.4377935241189</v>
       </c>
       <c r="AE5">
         <f t="shared" si="2"/>
-        <v>127.35013936978757</v>
+        <v>4125.5332914975661</v>
       </c>
       <c r="AF5">
         <f t="shared" si="2"/>
-        <v>96.44565930361054</v>
+        <v>501.14711992459354</v>
       </c>
       <c r="AG5">
         <f t="shared" si="2"/>
-        <v>129.56881197617918</v>
+        <v>560.31116652227024</v>
       </c>
       <c r="AH5">
         <f t="shared" si="2"/>
-        <v>263.46237097276634</v>
+        <v>5090.4118841208083</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
@@ -19587,223 +19596,223 @@
       </c>
       <c r="J6" s="25">
         <f>I2+J4</f>
-        <v>11.690199945981607</v>
+        <v>14.738042360618067</v>
       </c>
       <c r="K6">
         <f>J6+K4</f>
-        <v>15.964823659916885</v>
+        <v>22.300206709029137</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:BL6" si="3">K6+L4</f>
-        <v>21.291321529264902</v>
+        <v>31.129188516355207</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>27.92323178941448</v>
+        <v>41.435354652654539</v>
       </c>
       <c r="N6">
-        <f t="shared" si="3"/>
-        <v>36.172263258934805</v>
+        <f>M6+N4</f>
+        <v>53.463331643252502</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>46.420010353403512</v>
+        <v>67.497339713574775</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>59.131108823191255</v>
+        <v>83.867267386133477</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>74.867449908293295</v>
+        <v>102.95555567150683</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>94.302641412239865</v>
+        <v>125.20495352431766</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>118.23525145838353</v>
+        <v>151.12719149070281</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>147.59842960358714</v>
+        <v>181.31259533659744</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>183.46222369758252</v>
+        <v>216.44062199498157</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>227.0233142154249</v>
+        <v>257.29124141937052</v>
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>279.57512477706149</v>
+        <v>304.75700370228799</v>
       </c>
       <c r="X6">
         <f t="shared" si="3"/>
-        <v>342.44974927215549</v>
+        <v>359.85551370203063</v>
       </c>
       <c r="Y6">
         <f t="shared" si="3"/>
-        <v>416.92267475675675</v>
+        <v>423.74187691824199</v>
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>504.07319513941388</v>
+        <v>497.72047133196008</v>
       </c>
       <c r="AA6">
         <f t="shared" si="3"/>
-        <v>604.59944731967084</v>
+        <v>583.25513158493698</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
-        <v>718.59879483029908</v>
+        <v>681.9764975299629</v>
       </c>
       <c r="AC6">
         <f t="shared" si="3"/>
-        <v>845.34211437263775</v>
+        <v>795.68487716347317</v>
       </c>
       <c r="AD6">
         <f t="shared" si="3"/>
-        <v>983.09140213488149</v>
+        <v>926.34651200993994</v>
       </c>
       <c r="AE6">
         <f t="shared" si="3"/>
-        <v>1129.0259971432165</v>
+        <v>1076.0806346147012</v>
       </c>
       <c r="AF6">
         <f t="shared" si="3"/>
-        <v>1279.3412108049199</v>
+        <v>1247.1342202497176</v>
       </c>
       <c r="AG6">
         <f t="shared" si="3"/>
-        <v>1429.5528759664153</v>
+        <v>1441.8409390786553</v>
       </c>
       <c r="AH6">
         <f t="shared" si="3"/>
-        <v>1574.9819882313061</v>
+        <v>1662.5606346848947</v>
       </c>
       <c r="AI6">
         <f t="shared" si="3"/>
-        <v>1711.3243707808265</v>
+        <v>1911.5958629126933</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="3"/>
-        <v>1835.1657844978288</v>
+        <v>2191.0828403439068</v>
       </c>
       <c r="AK6">
         <f t="shared" si="3"/>
-        <v>1944.3126283749004</v>
+        <v>2502.8558191988859</v>
       </c>
       <c r="AL6">
         <f t="shared" si="3"/>
-        <v>2037.8726708671506</v>
+        <v>2848.2866483881539</v>
       </c>
       <c r="AM6">
         <f t="shared" si="3"/>
-        <v>2116.1060306320983</v>
+        <v>3228.1052184931768</v>
       </c>
       <c r="AN6">
         <f t="shared" si="3"/>
-        <v>2180.1304062921727</v>
+        <v>3642.2115199380237</v>
       </c>
       <c r="AO6">
         <f t="shared" si="3"/>
-        <v>2231.5824288034933</v>
+        <v>4089.4957099967314</v>
       </c>
       <c r="AP6">
         <f t="shared" si="3"/>
-        <v>2272.3150676194236</v>
+        <v>4567.6879610248006</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="3"/>
-        <v>2304.1723705956611</v>
+        <v>5073.263549940526</v>
       </c>
       <c r="AR6" s="21">
         <f t="shared" si="3"/>
-        <v>2328.8485119383822</v>
+        <v>5601.4289524269088</v>
       </c>
       <c r="AS6">
         <f t="shared" si="3"/>
-        <v>2347.8176481094038</v>
+        <v>6146.2100609708823</v>
       </c>
       <c r="AT6">
         <f t="shared" si="3"/>
-        <v>2362.3138598502587</v>
+        <v>6700.6532623963576</v>
       </c>
       <c r="AU6">
         <f t="shared" si="3"/>
-        <v>2373.3415800356106</v>
+        <v>7257.134639193202</v>
       </c>
       <c r="AV6">
         <f t="shared" si="3"/>
-        <v>2381.7015358651161</v>
+        <v>7807.7544670977859</v>
       </c>
       <c r="AW6">
         <f t="shared" si="3"/>
-        <v>2388.0222982124728</v>
+        <v>8344.7774859378314</v>
       </c>
       <c r="AX6">
         <f t="shared" si="3"/>
-        <v>2392.791657102473</v>
+        <v>8861.0686412822361</v>
       </c>
       <c r="AY6">
         <f t="shared" si="3"/>
-        <v>2396.3849153412702</v>
+        <v>9350.4725869117119</v>
       </c>
       <c r="AZ6">
         <f t="shared" si="3"/>
-        <v>2399.0889790054007</v>
+        <v>9808.0941603366646</v>
       </c>
       <c r="BA6">
         <f t="shared" si="3"/>
-        <v>2401.1221248847123</v>
+        <v>10230.454190301858</v>
       </c>
       <c r="BB6" s="21">
         <f t="shared" si="3"/>
-        <v>2402.6498191971564</v>
+        <v>10615.515874477849</v>
       </c>
       <c r="BC6">
         <f t="shared" si="3"/>
-        <v>2403.7971562135453</v>
+        <v>10962.596339631291</v>
       </c>
       <c r="BD6">
         <f t="shared" si="3"/>
-        <v>2404.6585171717616</v>
+        <v>11272.191698981684</v>
       </c>
       <c r="BE6">
         <f t="shared" si="3"/>
-        <v>2405.3050028410421</v>
+        <v>11545.750026280177</v>
       </c>
       <c r="BF6">
         <f t="shared" si="3"/>
-        <v>2405.7901150179114</v>
+        <v>11785.425618864894</v>
       </c>
       <c r="BG6">
         <f t="shared" si="3"/>
-        <v>2406.1540782899629</v>
+        <v>11993.841809369304</v>
       </c>
       <c r="BH6">
         <f t="shared" si="3"/>
-        <v>2406.4271156014543</v>
+        <v>12173.881065905834</v>
       </c>
       <c r="BI6">
         <f t="shared" si="3"/>
-        <v>2406.631924212244</v>
+        <v>12328.512519653335</v>
       </c>
       <c r="BJ6">
         <f t="shared" si="3"/>
-        <v>2406.7855435001516</v>
+        <v>12460.659895618353</v>
       </c>
       <c r="BK6">
         <f t="shared" si="3"/>
-        <v>2406.9007618820792</v>
+        <v>12573.107751829022</v>
       </c>
       <c r="BL6" s="21">
         <f t="shared" si="3"/>
-        <v>2406.9871753950315</v>
+        <v>12668.44094864</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
@@ -19980,15 +19989,15 @@
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="AR8" s="21">
         <f>AR6/AR7*100</f>
-        <v>7.0270537688377734</v>
+        <v>16.901718694560575</v>
       </c>
       <c r="BB8" s="21">
         <f>BB6/BB7*100</f>
-        <v>6.1656466328267507</v>
+        <v>27.241389562572145</v>
       </c>
       <c r="BL8" s="21">
         <f>BL6/BL7*100</f>
-        <v>5.3732801728068171</v>
+        <v>28.28061705751696</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
@@ -19997,7 +20006,7 @@
       </c>
       <c r="Q11">
         <f>C4</f>
-        <v>2407.2463466284489</v>
+        <v>13164.492848869437</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
@@ -20549,7 +20558,7 @@
         <v>12.647280752030237</v>
       </c>
       <c r="L30">
-        <f t="shared" ref="K30:BL30" si="6">(L31-L27)^2</f>
+        <f t="shared" ref="L30:BL30" si="6">(L31-L27)^2</f>
         <v>16.246406483635912</v>
       </c>
       <c r="M30">

--- a/Bass.xlsx
+++ b/Bass.xlsx
@@ -747,79 +747,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>14.738042360618067</c:v>
+                  <c:v>11.689913679310123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.300206709029137</c:v>
+                  <c:v>15.964210046146349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.129188516355207</c:v>
+                  <c:v>21.290336850589341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.435354652654539</c:v>
+                  <c:v>27.921830869824959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.463331643252502</c:v>
+                  <c:v>36.170401318593278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.497339713574775</c:v>
+                  <c:v>46.417645737880186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.867267386133477</c:v>
+                  <c:v>59.128206820828446</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.95555567150683</c:v>
+                  <c:v>74.863987851012979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.20495352431766</c:v>
+                  <c:v>94.298615177138785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151.12719149070281</c:v>
+                  <c:v>118.23068330646446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>181.31259533659744</c:v>
+                  <c:v>147.59337694834812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>216.44062199498157</c:v>
+                  <c:v>183.45678781685086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>257.29124141937052</c:v>
+                  <c:v>227.01764703373249</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>304.75700370228799</c:v>
+                  <c:v>279.56943062308659</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>359.85551370203063</c:v>
+                  <c:v>342.44427704393746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>423.74187691824199</c:v>
+                  <c:v>416.9176945334093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>497.72047133196008</c:v>
+                  <c:v>504.06895267557792</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>583.25513158493698</c:v>
+                  <c:v>604.59609123722419</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>681.9764975299629</c:v>
+                  <c:v>718.59627618683794</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>795.68487716347317</c:v>
+                  <c:v>845.34006777964078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>926.34651200993994</c:v>
+                  <c:v>983.08903112858582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1076.0806346147012</c:v>
+                  <c:v>1129.0220000900938</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1247.1342202497176</c:v>
+                  <c:v>1279.3337893445319</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1441.8409390786553</c:v>
+                  <c:v>1429.539856789379</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1662.5606346848947</c:v>
+                  <c:v>1574.9610573803288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133283360"/>
-        <c:axId val="-1133270848"/>
+        <c:axId val="1525390848"/>
+        <c:axId val="1525386496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133283360"/>
+        <c:axId val="1525390848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133270848"/>
+        <c:crossAx val="1525386496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133270848"/>
+        <c:axId val="1525386496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133283360"/>
+        <c:crossAx val="1525390848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,11 +1299,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1190735024"/>
-        <c:axId val="-1134938544"/>
+        <c:axId val="1525391392"/>
+        <c:axId val="1525379968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1190735024"/>
+        <c:axId val="1525391392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1345,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1134938544"/>
+        <c:crossAx val="1525379968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1134938544"/>
+        <c:axId val="1525379968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1404,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1190735024"/>
+        <c:crossAx val="1525391392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,11 +1847,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133938512"/>
-        <c:axId val="-379956496"/>
+        <c:axId val="1525401184"/>
+        <c:axId val="1525411520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133938512"/>
+        <c:axId val="1525401184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1893,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379956496"/>
+        <c:crossAx val="1525411520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1901,7 +1901,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-379956496"/>
+        <c:axId val="1525411520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1952,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133938512"/>
+        <c:crossAx val="1525401184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2509,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-379938000"/>
-        <c:axId val="-379949968"/>
+        <c:axId val="1525381056"/>
+        <c:axId val="1525381600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-379938000"/>
+        <c:axId val="1525381056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2556,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379949968"/>
+        <c:crossAx val="1525381600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,7 +2564,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-379949968"/>
+        <c:axId val="1525381600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379938000"/>
+        <c:crossAx val="1525381056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,11 +3058,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-379936368"/>
-        <c:axId val="-379926576"/>
+        <c:axId val="1525387040"/>
+        <c:axId val="1525408800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-379936368"/>
+        <c:axId val="1525387040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3104,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379926576"/>
+        <c:crossAx val="1525408800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +3112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-379926576"/>
+        <c:axId val="1525408800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3163,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379936368"/>
+        <c:crossAx val="1525387040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3516,11 +3516,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-379948880"/>
-        <c:axId val="-379933104"/>
+        <c:axId val="1525388128"/>
+        <c:axId val="1525402272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-379948880"/>
+        <c:axId val="1525388128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3562,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379933104"/>
+        <c:crossAx val="1525402272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-379933104"/>
+        <c:axId val="1525402272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3621,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379948880"/>
+        <c:crossAx val="1525388128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4064,11 +4064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-379946160"/>
-        <c:axId val="-379941264"/>
+        <c:axId val="1525389216"/>
+        <c:axId val="1525410432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-379946160"/>
+        <c:axId val="1525389216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4110,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379941264"/>
+        <c:crossAx val="1525410432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4118,7 +4118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-379941264"/>
+        <c:axId val="1525410432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4169,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-379946160"/>
+        <c:crossAx val="1525389216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4812,170 +4812,170 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
-                <c:pt idx="0" formatCode="0.0">
-                  <c:v>14.738042360618067</c:v>
+                <c:pt idx="0">
+                  <c:v>11.689913679310123</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.300206709029137</c:v>
+                  <c:v>15.964210046146349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.129188516355207</c:v>
+                  <c:v>21.290336850589341</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.435354652654539</c:v>
+                  <c:v>27.921830869824959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53.463331643252502</c:v>
+                  <c:v>36.170401318593278</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.497339713574775</c:v>
+                  <c:v>46.417645737880186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83.867267386133477</c:v>
+                  <c:v>59.128206820828446</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.95555567150683</c:v>
+                  <c:v>74.863987851012979</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125.20495352431766</c:v>
+                  <c:v>94.298615177138785</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>151.12719149070281</c:v>
+                  <c:v>118.23068330646446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>181.31259533659744</c:v>
+                  <c:v>147.59337694834812</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>216.44062199498157</c:v>
+                  <c:v>183.45678781685086</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>257.29124141937052</c:v>
+                  <c:v>227.01764703373249</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>304.75700370228799</c:v>
+                  <c:v>279.56943062308659</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>359.85551370203063</c:v>
+                  <c:v>342.44427704393746</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>423.74187691824199</c:v>
+                  <c:v>416.9176945334093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>497.72047133196008</c:v>
+                  <c:v>504.06895267557792</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>583.25513158493698</c:v>
+                  <c:v>604.59609123722419</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>681.9764975299629</c:v>
+                  <c:v>718.59627618683794</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>795.68487716347317</c:v>
+                  <c:v>845.34006777964078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>926.34651200993994</c:v>
+                  <c:v>983.08903112858582</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1076.0806346147012</c:v>
+                  <c:v>1129.0220000900938</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1247.1342202497176</c:v>
+                  <c:v>1279.3337893445319</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1441.8409390786553</c:v>
+                  <c:v>1429.539856789379</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1662.5606346848947</c:v>
+                  <c:v>1574.9610573803288</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1911.5958629126933</c:v>
+                  <c:v>1711.2933767509467</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2191.0828403439068</c:v>
+                  <c:v>1835.1230333131602</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2502.8558191988859</c:v>
+                  <c:v>1944.2570912440772</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2848.2866483881539</c:v>
+                  <c:v>2037.8040568765759</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3228.1052184931768</c:v>
+                  <c:v>2116.0247256843527</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3642.2115199380237</c:v>
+                  <c:v>2180.0373192405127</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4089.4957099967314</c:v>
+                  <c:v>2231.4788006493231</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4567.6879610248006</c:v>
+                  <c:v>2272.2022911873432</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5073.263549940526</c:v>
+                  <c:v>2304.0518482961829</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5601.4289524269088</c:v>
+                  <c:v>2328.7215599483361</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6146.2100609708823</c:v>
+                  <c:v>2347.6854425840415</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6700.6532623963576</c:v>
+                  <c:v>2362.1774151571421</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>7257.134639193202</c:v>
+                  <c:v>2373.2017483131376</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7807.7544670977859</c:v>
+                  <c:v>2381.5590189813702</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8344.7774859378314</c:v>
+                  <c:v>2387.8776656811197</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8861.0686412822361</c:v>
+                  <c:v>2392.6453657877269</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9350.4725869117119</c:v>
+                  <c:v>2396.2373285265649</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9808.0941603366646</c:v>
+                  <c:v>2398.940383593811</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10230.454190301858</c:v>
+                  <c:v>2400.9727462485534</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>10615.515874477849</c:v>
+                  <c:v>2402.4998336270132</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>10962.596339631291</c:v>
+                  <c:v>2403.6467011423506</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>11272.191698981684</c:v>
+                  <c:v>2404.5076994477799</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>11545.750026280177</c:v>
+                  <c:v>2405.1539053490369</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>11785.425618864894</c:v>
+                  <c:v>2405.6388019346991</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11993.841809369304</c:v>
+                  <c:v>2406.0025992297351</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>12173.881065905834</c:v>
+                  <c:v>2406.2755088693875</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>12328.512519653335</c:v>
+                  <c:v>2406.4802193483574</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>12460.659895618353</c:v>
+                  <c:v>2406.6337632620912</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>12573.107751829022</c:v>
+                  <c:v>2406.7489237867035</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>12668.44094864</c:v>
+                  <c:v>2406.8352929144876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,11 +4996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133275200"/>
-        <c:axId val="-1133270304"/>
+        <c:axId val="1525387584"/>
+        <c:axId val="1525388672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133275200"/>
+        <c:axId val="1525387584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,7 +5043,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133270304"/>
+        <c:crossAx val="1525388672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5051,7 +5051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133270304"/>
+        <c:axId val="1525388672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5102,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133275200"/>
+        <c:crossAx val="1525387584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5659,11 +5659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133267040"/>
-        <c:axId val="-1133262688"/>
+        <c:axId val="1525379424"/>
+        <c:axId val="1525394656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133267040"/>
+        <c:axId val="1525379424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5706,7 +5706,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133262688"/>
+        <c:crossAx val="1525394656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5714,7 +5714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133262688"/>
+        <c:axId val="1525394656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133267040"/>
+        <c:crossAx val="1525379424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6599,11 +6599,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133289888"/>
-        <c:axId val="-1133260512"/>
+        <c:axId val="1525401728"/>
+        <c:axId val="1525397376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133289888"/>
+        <c:axId val="1525401728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,7 +6646,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133260512"/>
+        <c:crossAx val="1525397376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6654,7 +6654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133260512"/>
+        <c:axId val="1525397376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,7 +6705,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133289888"/>
+        <c:crossAx val="1525401728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7262,11 +7262,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133281184"/>
-        <c:axId val="-1133279008"/>
+        <c:axId val="1525409888"/>
+        <c:axId val="1525395200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133281184"/>
+        <c:axId val="1525409888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7309,7 +7309,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133279008"/>
+        <c:crossAx val="1525395200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7317,7 +7317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133279008"/>
+        <c:axId val="1525395200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7368,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133281184"/>
+        <c:crossAx val="1525409888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7811,11 +7811,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133277920"/>
-        <c:axId val="-1133269760"/>
+        <c:axId val="1525395744"/>
+        <c:axId val="1525399008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133277920"/>
+        <c:axId val="1525395744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7857,7 +7857,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133269760"/>
+        <c:crossAx val="1525399008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7865,7 +7865,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133269760"/>
+        <c:axId val="1525399008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,7 +7916,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133277920"/>
+        <c:crossAx val="1525395744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8473,11 +8473,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133269216"/>
-        <c:axId val="-1133268128"/>
+        <c:axId val="1525400096"/>
+        <c:axId val="1525403360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133269216"/>
+        <c:axId val="1525400096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8520,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133268128"/>
+        <c:crossAx val="1525403360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8528,7 +8528,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133268128"/>
+        <c:axId val="1525403360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8579,7 +8579,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133269216"/>
+        <c:crossAx val="1525400096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9022,11 +9022,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133266496"/>
-        <c:axId val="-1133265952"/>
+        <c:axId val="1525396288"/>
+        <c:axId val="1525390304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133266496"/>
+        <c:axId val="1525396288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9068,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133265952"/>
+        <c:crossAx val="1525390304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9076,7 +9076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1133265952"/>
+        <c:axId val="1525390304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9127,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133266496"/>
+        <c:crossAx val="1525396288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9480,11 +9480,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1133264320"/>
-        <c:axId val="-1134277856"/>
+        <c:axId val="1525392480"/>
+        <c:axId val="1525396832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1133264320"/>
+        <c:axId val="1525392480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9526,7 +9526,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1134277856"/>
+        <c:crossAx val="1525396832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9534,7 +9534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1134277856"/>
+        <c:axId val="1525396832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,7 +9585,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1133264320"/>
+        <c:crossAx val="1525392480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18026,7 +18026,7 @@
         <xdr:cNvPr id="16" name="Диаграмма 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18062,7 +18062,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18100,7 +18100,7 @@
         <xdr:cNvPr id="19" name="Диаграмма 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18136,7 +18136,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18174,7 +18174,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18210,7 +18210,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18248,7 +18248,7 @@
         <xdr:cNvPr id="28" name="Диаграмма 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18286,7 +18286,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18324,7 +18324,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18360,7 +18360,7 @@
         <xdr:cNvPr id="32" name="Диаграмма 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18396,7 +18396,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18434,7 +18434,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18472,7 +18472,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18510,7 +18510,7 @@
         <xdr:cNvPr id="40" name="Диаграмма 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18548,7 +18548,7 @@
         <xdr:cNvPr id="41" name="Диаграмма 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18835,7 +18835,7 @@
   <dimension ref="A1:BM172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19135,7 +19135,7 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.2619234436363644</v>
       </c>
       <c r="J3" s="25">
         <f>J2-I2</f>
@@ -19240,13 +19240,13 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>3.8657292856234069E-4</v>
+        <v>5.7258473602443108E-4</v>
       </c>
       <c r="B4" s="3">
-        <v>0.16838079924216762</v>
+        <v>0.24952195155720133</v>
       </c>
       <c r="C4" s="3">
-        <v>13164.492848869437</v>
+        <v>2407.0943191544611</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -19255,224 +19255,224 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>$A4*$C4+($B4-$A4)*I2-($B4/$C4)*(I2^2)</f>
-        <v>6.4761189169817017</v>
+        <f>$A4*$C4+($B4-$A4)*I6-($B4/$C4)*(I6^2)</f>
+        <v>3.4279902356737599</v>
       </c>
       <c r="K4">
         <f>$A4*$C4+($B4-$A4)*J6-($B4/$C4)*(J6^2)</f>
-        <v>7.562164348411069</v>
+        <v>4.2742963668362259</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:BL4" si="1">$A4*$C4+($B4-$A4)*K6-($B4/$C4)*(K6^2)</f>
-        <v>8.8289818073260715</v>
+        <f>$A4*$C4+($B4-$A4)*K6-($B4/$C4)*(K6^2)</f>
+        <v>5.3261268044429935</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>10.306166136299332</v>
+        <f t="shared" ref="L4:BL4" si="1">$A4*$C4+($B4-$A4)*L6-($B4/$C4)*(L6^2)</f>
+        <v>6.6314940192356184</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>12.027976990597963</v>
+        <v>8.2485704487683176</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>14.034008070322278</v>
+        <v>10.247244419286909</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>16.36992767255871</v>
+        <v>12.710561082948258</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>19.088288285373356</v>
+        <v>15.735781030184528</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>22.249397852810826</v>
+        <v>19.434627326125806</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>25.922237966385154</v>
+        <v>23.932068129325675</v>
       </c>
       <c r="T4">
         <f t="shared" si="1"/>
-        <v>30.18540384589463</v>
+        <v>29.362693641883681</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>35.12802665838413</v>
+        <v>35.86341086850274</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>40.850619424388938</v>
+        <v>43.560859216881632</v>
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>47.465762282917495</v>
+        <v>52.551783589354095</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>55.098509999742653</v>
+        <v>62.874846420850886</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>63.886363216211343</v>
+        <v>74.473417489471842</v>
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
-        <v>73.978594413718113</v>
+        <v>87.151258142168615</v>
       </c>
       <c r="AA4">
         <f t="shared" si="1"/>
-        <v>85.534660252976906</v>
+        <v>100.52713856164631</v>
       </c>
       <c r="AB4">
         <f t="shared" si="1"/>
-        <v>98.721365945025937</v>
+        <v>114.00018494961373</v>
       </c>
       <c r="AC4">
         <f t="shared" si="1"/>
-        <v>113.70837963351022</v>
+        <v>126.74379159280286</v>
       </c>
       <c r="AD4">
         <f t="shared" si="1"/>
-        <v>130.66163484646671</v>
+        <v>137.74896334894504</v>
       </c>
       <c r="AE4">
         <f t="shared" si="1"/>
-        <v>149.73412260476135</v>
+        <v>145.93296896150798</v>
       </c>
       <c r="AF4">
         <f t="shared" si="1"/>
-        <v>171.05358563501642</v>
+        <v>150.31178925443814</v>
       </c>
       <c r="AG4">
         <f t="shared" si="1"/>
-        <v>194.70671882893777</v>
+        <v>150.20606744484704</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>220.71969560623941</v>
+        <v>145.42120059094978</v>
       </c>
       <c r="AI4">
         <f t="shared" si="1"/>
-        <v>249.03522822779865</v>
+        <v>136.33231937061782</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="1"/>
-        <v>279.48697743121346</v>
+        <v>123.82965656221359</v>
       </c>
       <c r="AK4">
         <f t="shared" si="1"/>
-        <v>311.77297885497893</v>
+        <v>109.13405793091692</v>
       </c>
       <c r="AL4">
         <f t="shared" si="1"/>
-        <v>345.43082918926797</v>
+        <v>93.546965632498711</v>
       </c>
       <c r="AM4">
         <f t="shared" si="1"/>
-        <v>379.81857010502273</v>
+        <v>78.220668807776576</v>
       </c>
       <c r="AN4">
         <f t="shared" si="1"/>
-        <v>414.10630144484679</v>
+        <v>64.012593556160198</v>
       </c>
       <c r="AO4">
         <f t="shared" si="1"/>
-        <v>447.28419005870757</v>
+        <v>51.441481408810546</v>
       </c>
       <c r="AP4">
         <f t="shared" si="1"/>
-        <v>478.19225102806951</v>
+        <v>40.723490538019973</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="1"/>
-        <v>505.57558891572506</v>
+        <v>31.849557108839804</v>
       </c>
       <c r="AR4" s="21">
         <f t="shared" si="1"/>
-        <v>528.16540248638273</v>
+        <v>24.669711652153069</v>
       </c>
       <c r="AS4">
         <f t="shared" si="1"/>
-        <v>544.78110854397323</v>
+        <v>18.963882635705431</v>
       </c>
       <c r="AT4">
         <f t="shared" si="1"/>
-        <v>554.44320142547519</v>
+        <v>14.491972573100725</v>
       </c>
       <c r="AU4">
         <f t="shared" si="1"/>
-        <v>556.48137679684487</v>
+        <v>11.024333155995464</v>
       </c>
       <c r="AV4">
         <f t="shared" si="1"/>
-        <v>550.61982790458342</v>
+        <v>8.3572706682323314</v>
       </c>
       <c r="AW4">
         <f t="shared" si="1"/>
-        <v>537.02301884004612</v>
+        <v>6.3186466997495927</v>
       </c>
       <c r="AX4">
         <f t="shared" si="1"/>
-        <v>516.29115534440393</v>
+        <v>4.7677001066070943</v>
       </c>
       <c r="AY4">
         <f t="shared" si="1"/>
-        <v>489.40394562947552</v>
+        <v>3.5919627388377648</v>
       </c>
       <c r="AZ4">
         <f t="shared" si="1"/>
-        <v>457.62157342495311</v>
+        <v>2.7030550672462823</v>
       </c>
       <c r="BA4">
         <f t="shared" si="1"/>
-        <v>422.36002996519346</v>
+        <v>2.0323626547423146</v>
       </c>
       <c r="BB4" s="21">
         <f t="shared" si="1"/>
-        <v>385.06168417599088</v>
+        <v>1.5270873784597825</v>
       </c>
       <c r="BC4">
         <f t="shared" si="1"/>
-        <v>347.08046515344199</v>
+        <v>1.1468675153373624</v>
       </c>
       <c r="BD4">
         <f t="shared" si="1"/>
-        <v>309.59535935039298</v>
+        <v>0.86099830542946165</v>
       </c>
       <c r="BE4">
         <f t="shared" si="1"/>
-        <v>273.55832729849226</v>
+        <v>0.64620590125707622</v>
       </c>
       <c r="BF4">
         <f t="shared" si="1"/>
-        <v>239.67559258471806</v>
+        <v>0.48489658566222715</v>
       </c>
       <c r="BG4">
         <f t="shared" si="1"/>
-        <v>208.41619050441</v>
+        <v>0.36379729503607905</v>
       </c>
       <c r="BH4">
         <f t="shared" si="1"/>
-        <v>180.03925653653118</v>
+        <v>0.27290963965242554</v>
       </c>
       <c r="BI4">
         <f t="shared" si="1"/>
-        <v>154.6314537475007</v>
+        <v>0.2047104789696732</v>
       </c>
       <c r="BJ4">
         <f t="shared" si="1"/>
-        <v>132.14737596501845</v>
+        <v>0.15354391373386989</v>
       </c>
       <c r="BK4">
         <f t="shared" si="1"/>
-        <v>112.44785621066899</v>
+        <v>0.11516052461240633</v>
       </c>
       <c r="BL4" s="21">
         <f t="shared" si="1"/>
-        <v>95.333196810977142</v>
+        <v>8.6369127783996191E-2</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
@@ -19481,110 +19481,111 @@
       </c>
       <c r="F5">
         <f>SUM(J5:AH5)</f>
-        <v>32814.800646621421</v>
+        <v>4722.49715568803</v>
       </c>
       <c r="I5">
+        <f>(I6-I2)^2</f>
         <v>0</v>
       </c>
       <c r="J5">
         <f>(J6-J2)^2</f>
-        <v>30.618977047543535</v>
+        <v>6.1767808009901017</v>
       </c>
       <c r="K5">
         <f>(K6-K2)^2</f>
-        <v>105.72754903225159</v>
+        <v>15.574022259603106</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="K5:AH5" si="2">(L6-L2)^2</f>
-        <v>231.28108161305283</v>
+        <f t="shared" ref="L5:AH5" si="2">(L6-L2)^2</f>
+        <v>28.826983351803698</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>408.81526599740647</v>
+        <v>44.96583396718998</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>485.88931164074546</v>
+        <v>22.562184168497382</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>847.21091544771036</v>
+        <v>64.435840154064692</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>994.5499113482316</v>
+        <v>46.204984375529293</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>1603.5347797240941</v>
+        <v>142.86446865027608</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>1607.1087662157304</v>
+        <v>84.316887538884828</v>
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
-        <v>2213.0731787913483</v>
+        <v>200.13205064218272</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>2347.7299662262176</v>
+        <v>217.09549796692963</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>2093.794693467953</v>
+        <v>163.17934858791455</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>1346.2438833841763</v>
+        <v>41.185613886787358</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>825.78513354524569</v>
+        <v>12.594721900972711</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>179.30526968048042</v>
+        <v>16.166389503758094</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
-        <v>276.99660760209986</v>
+        <v>550.71874293059295</v>
       </c>
       <c r="Z5">
         <f t="shared" si="2"/>
-        <v>1078.0682738607081</v>
+        <v>701.48005096313432</v>
       </c>
       <c r="AA5">
         <f t="shared" si="2"/>
-        <v>2728.6957511949995</v>
+        <v>954.56033038417468</v>
       </c>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>567.8385533222023</v>
+        <v>163.59472605405114</v>
       </c>
       <c r="AC5">
         <f t="shared" si="2"/>
-        <v>1277.6915218898632</v>
+        <v>193.49865777200236</v>
       </c>
       <c r="AD5">
         <f t="shared" si="2"/>
-        <v>1287.4377935241189</v>
+        <v>435.20784488089873</v>
       </c>
       <c r="AE5">
         <f t="shared" si="2"/>
-        <v>4125.5332914975661</v>
+        <v>127.44036845067862</v>
       </c>
       <c r="AF5">
         <f t="shared" si="2"/>
-        <v>501.14711992459354</v>
+        <v>96.299946879295305</v>
       </c>
       <c r="AG5">
         <f t="shared" si="2"/>
-        <v>560.31116652227024</v>
+        <v>129.27259132507635</v>
       </c>
       <c r="AH5">
         <f t="shared" si="2"/>
-        <v>5090.4118841208083</v>
+        <v>264.14228829274214</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
@@ -19592,227 +19593,227 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <f>I2+J4</f>
-        <v>14.738042360618067</v>
+        <v>8.2619234436363644</v>
+      </c>
+      <c r="J6">
+        <f>I6+J4</f>
+        <v>11.689913679310123</v>
       </c>
       <c r="K6">
         <f>J6+K4</f>
-        <v>22.300206709029137</v>
+        <v>15.964210046146349</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:BL6" si="3">K6+L4</f>
-        <v>31.129188516355207</v>
+        <v>21.290336850589341</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>41.435354652654539</v>
+        <v>27.921830869824959</v>
       </c>
       <c r="N6">
         <f>M6+N4</f>
-        <v>53.463331643252502</v>
+        <v>36.170401318593278</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>67.497339713574775</v>
+        <v>46.417645737880186</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>83.867267386133477</v>
+        <v>59.128206820828446</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>102.95555567150683</v>
+        <v>74.863987851012979</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>125.20495352431766</v>
+        <v>94.298615177138785</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>151.12719149070281</v>
+        <v>118.23068330646446</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>181.31259533659744</v>
+        <v>147.59337694834812</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>216.44062199498157</v>
+        <v>183.45678781685086</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>257.29124141937052</v>
+        <v>227.01764703373249</v>
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>304.75700370228799</v>
+        <v>279.56943062308659</v>
       </c>
       <c r="X6">
         <f t="shared" si="3"/>
-        <v>359.85551370203063</v>
+        <v>342.44427704393746</v>
       </c>
       <c r="Y6">
         <f t="shared" si="3"/>
-        <v>423.74187691824199</v>
+        <v>416.9176945334093</v>
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>497.72047133196008</v>
+        <v>504.06895267557792</v>
       </c>
       <c r="AA6">
         <f t="shared" si="3"/>
-        <v>583.25513158493698</v>
+        <v>604.59609123722419</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
-        <v>681.9764975299629</v>
+        <v>718.59627618683794</v>
       </c>
       <c r="AC6">
         <f t="shared" si="3"/>
-        <v>795.68487716347317</v>
+        <v>845.34006777964078</v>
       </c>
       <c r="AD6">
         <f t="shared" si="3"/>
-        <v>926.34651200993994</v>
+        <v>983.08903112858582</v>
       </c>
       <c r="AE6">
         <f t="shared" si="3"/>
-        <v>1076.0806346147012</v>
+        <v>1129.0220000900938</v>
       </c>
       <c r="AF6">
         <f t="shared" si="3"/>
-        <v>1247.1342202497176</v>
+        <v>1279.3337893445319</v>
       </c>
       <c r="AG6">
         <f t="shared" si="3"/>
-        <v>1441.8409390786553</v>
+        <v>1429.539856789379</v>
       </c>
       <c r="AH6">
         <f t="shared" si="3"/>
-        <v>1662.5606346848947</v>
+        <v>1574.9610573803288</v>
       </c>
       <c r="AI6">
         <f t="shared" si="3"/>
-        <v>1911.5958629126933</v>
+        <v>1711.2933767509467</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="3"/>
-        <v>2191.0828403439068</v>
+        <v>1835.1230333131602</v>
       </c>
       <c r="AK6">
         <f t="shared" si="3"/>
-        <v>2502.8558191988859</v>
+        <v>1944.2570912440772</v>
       </c>
       <c r="AL6">
         <f t="shared" si="3"/>
-        <v>2848.2866483881539</v>
+        <v>2037.8040568765759</v>
       </c>
       <c r="AM6">
         <f t="shared" si="3"/>
-        <v>3228.1052184931768</v>
+        <v>2116.0247256843527</v>
       </c>
       <c r="AN6">
         <f t="shared" si="3"/>
-        <v>3642.2115199380237</v>
+        <v>2180.0373192405127</v>
       </c>
       <c r="AO6">
         <f t="shared" si="3"/>
-        <v>4089.4957099967314</v>
+        <v>2231.4788006493231</v>
       </c>
       <c r="AP6">
         <f t="shared" si="3"/>
-        <v>4567.6879610248006</v>
+        <v>2272.2022911873432</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="3"/>
-        <v>5073.263549940526</v>
+        <v>2304.0518482961829</v>
       </c>
       <c r="AR6" s="21">
         <f t="shared" si="3"/>
-        <v>5601.4289524269088</v>
+        <v>2328.7215599483361</v>
       </c>
       <c r="AS6">
         <f t="shared" si="3"/>
-        <v>6146.2100609708823</v>
+        <v>2347.6854425840415</v>
       </c>
       <c r="AT6">
         <f t="shared" si="3"/>
-        <v>6700.6532623963576</v>
+        <v>2362.1774151571421</v>
       </c>
       <c r="AU6">
         <f t="shared" si="3"/>
-        <v>7257.134639193202</v>
+        <v>2373.2017483131376</v>
       </c>
       <c r="AV6">
         <f t="shared" si="3"/>
-        <v>7807.7544670977859</v>
+        <v>2381.5590189813702</v>
       </c>
       <c r="AW6">
         <f t="shared" si="3"/>
-        <v>8344.7774859378314</v>
+        <v>2387.8776656811197</v>
       </c>
       <c r="AX6">
         <f t="shared" si="3"/>
-        <v>8861.0686412822361</v>
+        <v>2392.6453657877269</v>
       </c>
       <c r="AY6">
         <f t="shared" si="3"/>
-        <v>9350.4725869117119</v>
+        <v>2396.2373285265649</v>
       </c>
       <c r="AZ6">
         <f t="shared" si="3"/>
-        <v>9808.0941603366646</v>
+        <v>2398.940383593811</v>
       </c>
       <c r="BA6">
         <f t="shared" si="3"/>
-        <v>10230.454190301858</v>
+        <v>2400.9727462485534</v>
       </c>
       <c r="BB6" s="21">
         <f t="shared" si="3"/>
-        <v>10615.515874477849</v>
+        <v>2402.4998336270132</v>
       </c>
       <c r="BC6">
         <f t="shared" si="3"/>
-        <v>10962.596339631291</v>
+        <v>2403.6467011423506</v>
       </c>
       <c r="BD6">
         <f t="shared" si="3"/>
-        <v>11272.191698981684</v>
+        <v>2404.5076994477799</v>
       </c>
       <c r="BE6">
         <f t="shared" si="3"/>
-        <v>11545.750026280177</v>
+        <v>2405.1539053490369</v>
       </c>
       <c r="BF6">
         <f t="shared" si="3"/>
-        <v>11785.425618864894</v>
+        <v>2405.6388019346991</v>
       </c>
       <c r="BG6">
         <f t="shared" si="3"/>
-        <v>11993.841809369304</v>
+        <v>2406.0025992297351</v>
       </c>
       <c r="BH6">
         <f t="shared" si="3"/>
-        <v>12173.881065905834</v>
+        <v>2406.2755088693875</v>
       </c>
       <c r="BI6">
         <f t="shared" si="3"/>
-        <v>12328.512519653335</v>
+        <v>2406.4802193483574</v>
       </c>
       <c r="BJ6">
         <f t="shared" si="3"/>
-        <v>12460.659895618353</v>
+        <v>2406.6337632620912</v>
       </c>
       <c r="BK6">
         <f t="shared" si="3"/>
-        <v>12573.107751829022</v>
+        <v>2406.7489237867035</v>
       </c>
       <c r="BL6" s="21">
         <f t="shared" si="3"/>
-        <v>12668.44094864</v>
+        <v>2406.8352929144876</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
@@ -19989,15 +19990,15 @@
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="AR8" s="21">
         <f>AR6/AR7*100</f>
-        <v>16.901718694560575</v>
+        <v>7.0266707046515275</v>
       </c>
       <c r="BB8" s="21">
         <f>BB6/BB7*100</f>
-        <v>27.241389562572145</v>
+        <v>6.165261741937476</v>
       </c>
       <c r="BL8" s="21">
         <f>BL6/BL7*100</f>
-        <v>28.28061705751696</v>
+        <v>5.3729411152789481</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
@@ -20006,7 +20007,7 @@
       </c>
       <c r="Q11">
         <f>C4</f>
-        <v>13164.492848869437</v>
+        <v>2407.0943191544611</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">

--- a/Bass.xlsx
+++ b/Bass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikiforov\Desktop\Магистратура\magistr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -747,79 +747,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>11.689913679310123</c:v>
+                  <c:v>11.690132420141985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.964210046146349</c:v>
+                  <c:v>15.964663690024292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.290336850589341</c:v>
+                  <c:v>21.291036349315213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.921830869824959</c:v>
+                  <c:v>27.922778653533083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.170401318593278</c:v>
+                  <c:v>36.171586869754464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.417645737880186</c:v>
+                  <c:v>46.419039839472234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.128206820828446</c:v>
+                  <c:v>59.129754313721484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.863987851012979</c:v>
+                  <c:v>74.865598859800059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.298615177138785</c:v>
+                  <c:v>94.300155017258021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.23068330646446</c:v>
+                  <c:v>118.23196174001515</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147.59337694834812</c:v>
+                  <c:v>147.59413820145096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183.45678781685086</c:v>
+                  <c:v>183.45670390248071</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>227.01764703373249</c:v>
+                  <c:v>227.01631850233562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>279.56943062308659</c:v>
+                  <c:v>279.56640083832747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>342.44427704393746</c:v>
+                  <c:v>342.43906815208214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>416.9176945334093</c:v>
+                  <c:v>416.90987471714845</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>504.06895267557792</c:v>
+                  <c:v>504.0582436732268</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>604.59609123722419</c:v>
+                  <c:v>604.58252042477557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>718.59627618683794</c:v>
+                  <c:v>718.58036654872899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>845.34006777964078</c:v>
+                  <c:v>845.32304083881615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>983.08903112858582</c:v>
+                  <c:v>983.07297497017862</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1129.0220000900938</c:v>
+                  <c:v>1129.0099355602526</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1279.3337893445319</c:v>
+                  <c:v>1279.3295665429077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1429.539856789379</c:v>
+                  <c:v>1429.5478446861689</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1574.9610573803288</c:v>
+                  <c:v>1574.9856526701903</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525390848"/>
-        <c:axId val="1525386496"/>
+        <c:axId val="1742955296"/>
+        <c:axId val="1742955840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525390848"/>
+        <c:axId val="1742955296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525386496"/>
+        <c:crossAx val="1742955840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -895,7 +895,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525386496"/>
+        <c:axId val="1742955840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -946,7 +946,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525390848"/>
+        <c:crossAx val="1742955296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1042,7 +1042,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1299,11 +1298,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525391392"/>
-        <c:axId val="1525379968"/>
+        <c:axId val="1860160016"/>
+        <c:axId val="1860152400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525391392"/>
+        <c:axId val="1860160016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1344,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525379968"/>
+        <c:crossAx val="1860152400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1353,7 +1352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525379968"/>
+        <c:axId val="1860152400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1404,7 +1403,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525391392"/>
+        <c:crossAx val="1860160016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,7 +1417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1500,7 +1498,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1847,11 +1844,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525401184"/>
-        <c:axId val="1525411520"/>
+        <c:axId val="1860156752"/>
+        <c:axId val="1860161104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525401184"/>
+        <c:axId val="1860156752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1893,7 +1890,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525411520"/>
+        <c:crossAx val="1860161104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1901,7 +1898,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525411520"/>
+        <c:axId val="1860161104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1949,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525401184"/>
+        <c:crossAx val="1860156752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1966,7 +1963,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2078,7 +2074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2509,11 +2504,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525381056"/>
-        <c:axId val="1525381600"/>
+        <c:axId val="1860151312"/>
+        <c:axId val="1860152944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525381056"/>
+        <c:axId val="1860151312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2556,7 +2551,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525381600"/>
+        <c:crossAx val="1860152944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2564,7 +2559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525381600"/>
+        <c:axId val="1860152944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2615,7 +2610,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525381056"/>
+        <c:crossAx val="1860151312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2629,7 +2624,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2711,7 +2705,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3058,11 +3051,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525387040"/>
-        <c:axId val="1525408800"/>
+        <c:axId val="1860161648"/>
+        <c:axId val="1860155120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525387040"/>
+        <c:axId val="1860161648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3097,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525408800"/>
+        <c:crossAx val="1860155120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525408800"/>
+        <c:axId val="1860155120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3163,7 +3156,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525387040"/>
+        <c:crossAx val="1860161648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3177,7 +3170,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3259,7 +3251,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3516,11 +3507,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525388128"/>
-        <c:axId val="1525402272"/>
+        <c:axId val="1860162736"/>
+        <c:axId val="1860163824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525388128"/>
+        <c:axId val="1860162736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3553,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525402272"/>
+        <c:crossAx val="1860163824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525402272"/>
+        <c:axId val="1860163824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,7 +3612,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525388128"/>
+        <c:crossAx val="1860162736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3635,7 +3626,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3717,7 +3707,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4064,11 +4053,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525389216"/>
-        <c:axId val="1525410432"/>
+        <c:axId val="1860148592"/>
+        <c:axId val="1860149136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525389216"/>
+        <c:axId val="1860148592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4110,7 +4099,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525410432"/>
+        <c:crossAx val="1860149136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4118,7 +4107,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525410432"/>
+        <c:axId val="1860149136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4158,461 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525389216"/>
+        <c:crossAx val="1860148592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1248906386701742E-3"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$3:$AH$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>0.94267721695959672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.813215809181818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9034437980271726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2949137388044445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.204260557521554</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9700173830111112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.940330039565062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.580613314976816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.204797126589227</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.967687329608921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.775336272146674</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.823404550249904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.917424573718108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.420481145080402</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70.444495639000934</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>93.920070042227451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>90.169329370814694</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104.93762966054976</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.313809777142296</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>125.62382749305766</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>130.79770712750872</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>178.0835536331499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>129.20958666830484</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>148.64951055571464</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>173.04346595275024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Generation!$J$4:$AH$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>3.428208976505621</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2745312698823072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3263726592909224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6317423042178696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2488082162213807</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.247452969717767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.710714474249249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.73584454607858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.434556157457969</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.931806722757127</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.362176461435823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.862565701029759</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.559614599854903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.550082335991874</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62.872667313754683</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>74.47080656506634</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>87.148368956078315</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100.52427675154881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>113.99784612395347</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126.74267429008717</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>137.74993413136252</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>145.93696059007402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>150.31963098265513</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>150.21827814326122</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>145.43780798402145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1514755968"/>
+        <c:axId val="1742950400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1514755968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1742950400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1742950400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4813,169 +5256,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>11.689913679310123</c:v>
+                  <c:v>11.690132420141985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.964210046146349</c:v>
+                  <c:v>15.964663690024292</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.290336850589341</c:v>
+                  <c:v>21.291036349315213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27.921830869824959</c:v>
+                  <c:v>27.922778653533083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36.170401318593278</c:v>
+                  <c:v>36.171586869754464</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.417645737880186</c:v>
+                  <c:v>46.419039839472234</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>59.128206820828446</c:v>
+                  <c:v>59.129754313721484</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.863987851012979</c:v>
+                  <c:v>74.865598859800059</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.298615177138785</c:v>
+                  <c:v>94.300155017258021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>118.23068330646446</c:v>
+                  <c:v>118.23196174001515</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>147.59337694834812</c:v>
+                  <c:v>147.59413820145096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>183.45678781685086</c:v>
+                  <c:v>183.45670390248071</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>227.01764703373249</c:v>
+                  <c:v>227.01631850233562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>279.56943062308659</c:v>
+                  <c:v>279.56640083832747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>342.44427704393746</c:v>
+                  <c:v>342.43906815208214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>416.9176945334093</c:v>
+                  <c:v>416.90987471714845</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>504.06895267557792</c:v>
+                  <c:v>504.0582436732268</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>604.59609123722419</c:v>
+                  <c:v>604.58252042477557</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>718.59627618683794</c:v>
+                  <c:v>718.58036654872899</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>845.34006777964078</c:v>
+                  <c:v>845.32304083881615</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>983.08903112858582</c:v>
+                  <c:v>983.07297497017862</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1129.0220000900938</c:v>
+                  <c:v>1129.0099355602526</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1279.3337893445319</c:v>
+                  <c:v>1279.3295665429077</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1429.539856789379</c:v>
+                  <c:v>1429.5478446861689</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1574.9610573803288</c:v>
+                  <c:v>1574.9856526701903</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1711.2933767509467</c:v>
+                  <c:v>1711.3384322178067</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1835.1230333131602</c:v>
+                  <c:v>1835.1913521330782</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1944.2570912440772</c:v>
+                  <c:v>1944.3501203239498</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2037.8040568765759</c:v>
+                  <c:v>2037.921841862878</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2116.0247256843527</c:v>
+                  <c:v>2116.1661005198512</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2180.0373192405127</c:v>
+                  <c:v>2180.2002396857288</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2231.4788006493231</c:v>
+                  <c:v>2231.6607161695438</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2272.2022911873432</c:v>
+                  <c:v>2272.4004741447598</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2304.0518482961829</c:v>
+                  <c:v>2304.2636392108161</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2328.7215599483361</c:v>
+                  <c:v>2328.9445221347491</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2347.6854425840415</c:v>
+                  <c:v>2347.9174400416809</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2362.1774151571421</c:v>
+                  <c:v>2362.4166350751675</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2373.2017483131376</c:v>
+                  <c:v>2373.4466887493318</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2381.5590189813702</c:v>
+                  <c:v>2381.8084578459111</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2387.8776656811197</c:v>
+                  <c:v>2388.1306220992778</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2392.6453657877269</c:v>
+                  <c:v>2392.9010606391471</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2396.2373285265649</c:v>
+                  <c:v>2396.4951478544804</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2398.940383593811</c:v>
+                  <c:v>2399.1998465476736</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2400.9727462485534</c:v>
+                  <c:v>2401.2334780096044</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2402.4998336270132</c:v>
+                  <c:v>2402.7615431075264</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2403.6467011423506</c:v>
+                  <c:v>2403.9091629391819</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2404.5076994477799</c:v>
+                  <c:v>2404.7707394248314</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2405.1539053490369</c:v>
+                  <c:v>2405.417389227528</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2405.6388019346991</c:v>
+                  <c:v>2405.9026263276555</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2406.0025992297351</c:v>
+                  <c:v>2406.2666846349948</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2406.2755088693875</c:v>
+                  <c:v>2406.5397942159643</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2406.4802193483574</c:v>
+                  <c:v>2406.7446577655001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2406.6337632620912</c:v>
+                  <c:v>2406.8983188052698</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2406.7489237867035</c:v>
+                  <c:v>2407.0135689092522</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2406.8352929144876</c:v>
+                  <c:v>2407.100006518308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4996,11 +5439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525387584"/>
-        <c:axId val="1525388672"/>
+        <c:axId val="1742956384"/>
+        <c:axId val="1860150768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525387584"/>
+        <c:axId val="1742956384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,7 +5486,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525388672"/>
+        <c:crossAx val="1860150768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5051,7 +5494,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525388672"/>
+        <c:axId val="1860150768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5102,7 +5545,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525387584"/>
+        <c:crossAx val="1742956384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5228,7 +5671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5659,11 +6101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525379424"/>
-        <c:axId val="1525394656"/>
+        <c:axId val="1860153488"/>
+        <c:axId val="1860157296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525379424"/>
+        <c:axId val="1860153488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5706,7 +6148,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525394656"/>
+        <c:crossAx val="1860157296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5714,7 +6156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525394656"/>
+        <c:axId val="1860157296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +6207,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525379424"/>
+        <c:crossAx val="1860153488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5779,7 +6221,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6599,11 +7040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525401728"/>
-        <c:axId val="1525397376"/>
+        <c:axId val="1860154576"/>
+        <c:axId val="1860157840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525401728"/>
+        <c:axId val="1860154576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6646,7 +7087,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525397376"/>
+        <c:crossAx val="1860157840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6654,7 +7095,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525397376"/>
+        <c:axId val="1860157840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,7 +7146,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525401728"/>
+        <c:crossAx val="1860154576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6719,7 +7160,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6831,7 +7271,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7262,11 +7701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525409888"/>
-        <c:axId val="1525395200"/>
+        <c:axId val="1860162192"/>
+        <c:axId val="1860149680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525409888"/>
+        <c:axId val="1860162192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7309,7 +7748,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525395200"/>
+        <c:crossAx val="1860149680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7317,7 +7756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525395200"/>
+        <c:axId val="1860149680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7368,7 +7807,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525409888"/>
+        <c:crossAx val="1860162192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7382,7 +7821,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7464,7 +7902,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7811,11 +8248,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525395744"/>
-        <c:axId val="1525399008"/>
+        <c:axId val="1860158384"/>
+        <c:axId val="1860151856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525395744"/>
+        <c:axId val="1860158384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7857,7 +8294,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525399008"/>
+        <c:crossAx val="1860151856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7865,7 +8302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525399008"/>
+        <c:axId val="1860151856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,7 +8353,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525395744"/>
+        <c:crossAx val="1860158384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7930,7 +8367,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8042,7 +8478,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8473,11 +8908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525400096"/>
-        <c:axId val="1525403360"/>
+        <c:axId val="1860154032"/>
+        <c:axId val="1860150224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525400096"/>
+        <c:axId val="1860154032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8520,7 +8955,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525403360"/>
+        <c:crossAx val="1860150224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8528,7 +8963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525403360"/>
+        <c:axId val="1860150224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8579,7 +9014,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525400096"/>
+        <c:crossAx val="1860154032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8593,7 +9028,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8675,7 +9109,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9022,11 +9455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525396288"/>
-        <c:axId val="1525390304"/>
+        <c:axId val="1860160560"/>
+        <c:axId val="1860158928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525396288"/>
+        <c:axId val="1860160560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9068,7 +9501,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525390304"/>
+        <c:crossAx val="1860158928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9076,7 +9509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525390304"/>
+        <c:axId val="1860158928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,7 +9560,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525396288"/>
+        <c:crossAx val="1860160560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9141,7 +9574,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9223,7 +9655,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9480,11 +9911,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1525392480"/>
-        <c:axId val="1525396832"/>
+        <c:axId val="1860163280"/>
+        <c:axId val="1860159472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1525392480"/>
+        <c:axId val="1860163280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9526,7 +9957,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525396832"/>
+        <c:crossAx val="1860159472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9534,7 +9965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1525396832"/>
+        <c:axId val="1860159472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9585,7 +10016,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1525392480"/>
+        <c:crossAx val="1860163280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9599,7 +10030,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9907,6 +10337,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13878,6 +14348,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -18026,7 +19012,7 @@
         <xdr:cNvPr id="16" name="Диаграмма 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18062,7 +19048,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18100,7 +19086,7 @@
         <xdr:cNvPr id="19" name="Диаграмма 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18136,7 +19122,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18174,7 +19160,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18210,7 +19196,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18248,7 +19234,7 @@
         <xdr:cNvPr id="28" name="Диаграмма 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18286,7 +19272,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18324,7 +19310,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18360,7 +19346,7 @@
         <xdr:cNvPr id="32" name="Диаграмма 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18396,7 +19382,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18434,7 +19420,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18472,7 +19458,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18510,7 +19496,7 @@
         <xdr:cNvPr id="40" name="Диаграмма 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18548,7 +19534,7 @@
         <xdr:cNvPr id="41" name="Диаграмма 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18561,6 +19547,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18835,7 +19851,7 @@
   <dimension ref="A1:BM172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19240,13 +20256,13 @@
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>5.7258473602443108E-4</v>
+        <v>5.7265103506869218E-4</v>
       </c>
       <c r="B4" s="3">
-        <v>0.24952195155720133</v>
+        <v>0.24951068145161287</v>
       </c>
       <c r="C4" s="3">
-        <v>2407.0943191544611</v>
+        <v>2407.3592536598408</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -19256,223 +20272,223 @@
       </c>
       <c r="J4">
         <f>$A4*$C4+($B4-$A4)*I6-($B4/$C4)*(I6^2)</f>
-        <v>3.4279902356737599</v>
+        <v>3.428208976505621</v>
       </c>
       <c r="K4">
         <f>$A4*$C4+($B4-$A4)*J6-($B4/$C4)*(J6^2)</f>
-        <v>4.2742963668362259</v>
+        <v>4.2745312698823072</v>
       </c>
       <c r="L4">
         <f>$A4*$C4+($B4-$A4)*K6-($B4/$C4)*(K6^2)</f>
-        <v>5.3261268044429935</v>
+        <v>5.3263726592909224</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="L4:BL4" si="1">$A4*$C4+($B4-$A4)*L6-($B4/$C4)*(L6^2)</f>
-        <v>6.6314940192356184</v>
+        <f t="shared" ref="M4:BL4" si="1">$A4*$C4+($B4-$A4)*L6-($B4/$C4)*(L6^2)</f>
+        <v>6.6317423042178696</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>8.2485704487683176</v>
+        <v>8.2488082162213807</v>
       </c>
       <c r="O4">
         <f t="shared" si="1"/>
-        <v>10.247244419286909</v>
+        <v>10.247452969717767</v>
       </c>
       <c r="P4">
         <f t="shared" si="1"/>
-        <v>12.710561082948258</v>
+        <v>12.710714474249249</v>
       </c>
       <c r="Q4">
         <f t="shared" si="1"/>
-        <v>15.735781030184528</v>
+        <v>15.73584454607858</v>
       </c>
       <c r="R4">
         <f t="shared" si="1"/>
-        <v>19.434627326125806</v>
+        <v>19.434556157457969</v>
       </c>
       <c r="S4">
         <f t="shared" si="1"/>
-        <v>23.932068129325675</v>
+        <v>23.931806722757127</v>
       </c>
       <c r="T4">
         <f t="shared" si="1"/>
-        <v>29.362693641883681</v>
+        <v>29.362176461435823</v>
       </c>
       <c r="U4">
         <f t="shared" si="1"/>
-        <v>35.86341086850274</v>
+        <v>35.862565701029759</v>
       </c>
       <c r="V4">
         <f t="shared" si="1"/>
-        <v>43.560859216881632</v>
+        <v>43.559614599854903</v>
       </c>
       <c r="W4">
         <f t="shared" si="1"/>
-        <v>52.551783589354095</v>
+        <v>52.550082335991874</v>
       </c>
       <c r="X4">
         <f t="shared" si="1"/>
-        <v>62.874846420850886</v>
+        <v>62.872667313754683</v>
       </c>
       <c r="Y4">
         <f t="shared" si="1"/>
-        <v>74.473417489471842</v>
+        <v>74.47080656506634</v>
       </c>
       <c r="Z4">
         <f t="shared" si="1"/>
-        <v>87.151258142168615</v>
+        <v>87.148368956078315</v>
       </c>
       <c r="AA4">
         <f t="shared" si="1"/>
-        <v>100.52713856164631</v>
+        <v>100.52427675154881</v>
       </c>
       <c r="AB4">
         <f t="shared" si="1"/>
-        <v>114.00018494961373</v>
+        <v>113.99784612395347</v>
       </c>
       <c r="AC4">
         <f t="shared" si="1"/>
-        <v>126.74379159280286</v>
+        <v>126.74267429008717</v>
       </c>
       <c r="AD4">
         <f t="shared" si="1"/>
-        <v>137.74896334894504</v>
+        <v>137.74993413136252</v>
       </c>
       <c r="AE4">
         <f t="shared" si="1"/>
-        <v>145.93296896150798</v>
+        <v>145.93696059007402</v>
       </c>
       <c r="AF4">
         <f t="shared" si="1"/>
-        <v>150.31178925443814</v>
+        <v>150.31963098265513</v>
       </c>
       <c r="AG4">
         <f t="shared" si="1"/>
-        <v>150.20606744484704</v>
+        <v>150.21827814326122</v>
       </c>
       <c r="AH4">
         <f t="shared" si="1"/>
-        <v>145.42120059094978</v>
+        <v>145.43780798402145</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="1"/>
-        <v>136.33231937061782</v>
+        <f>$A4*$C4+($B4-$A4)*AH6-($B4/$C4)*(AH6^2)</f>
+        <v>136.35277954761631</v>
       </c>
       <c r="AJ4">
         <f t="shared" si="1"/>
-        <v>123.82965656221359</v>
+        <v>123.85291991527146</v>
       </c>
       <c r="AK4">
         <f t="shared" si="1"/>
-        <v>109.13405793091692</v>
+        <v>109.15876819087157</v>
       </c>
       <c r="AL4">
         <f t="shared" si="1"/>
-        <v>93.546965632498711</v>
+        <v>93.571721538928216</v>
       </c>
       <c r="AM4">
         <f t="shared" si="1"/>
-        <v>78.220668807776576</v>
+        <v>78.244258656973273</v>
       </c>
       <c r="AN4">
         <f t="shared" si="1"/>
-        <v>64.012593556160198</v>
+        <v>64.034139165877605</v>
       </c>
       <c r="AO4">
         <f t="shared" si="1"/>
-        <v>51.441481408810546</v>
+        <v>51.46047648381483</v>
       </c>
       <c r="AP4">
         <f t="shared" si="1"/>
-        <v>40.723490538019973</v>
+        <v>40.739757975216207</v>
       </c>
       <c r="AQ4">
         <f t="shared" si="1"/>
-        <v>31.849557108839804</v>
+        <v>31.863165066056354</v>
       </c>
       <c r="AR4" s="21">
         <f t="shared" si="1"/>
-        <v>24.669711652153069</v>
+        <v>24.680882923933041</v>
       </c>
       <c r="AS4">
         <f t="shared" si="1"/>
-        <v>18.963882635705431</v>
+        <v>18.972917906931798</v>
       </c>
       <c r="AT4">
         <f t="shared" si="1"/>
-        <v>14.491972573100725</v>
+        <v>14.499195033486444</v>
       </c>
       <c r="AU4">
         <f t="shared" si="1"/>
-        <v>11.024333155995464</v>
+        <v>11.030053674164265</v>
       </c>
       <c r="AV4">
         <f t="shared" si="1"/>
-        <v>8.3572706682323314</v>
+        <v>8.3617690965793372</v>
       </c>
       <c r="AW4">
         <f t="shared" si="1"/>
-        <v>6.3186466997495927</v>
+        <v>6.3221642533666227</v>
       </c>
       <c r="AX4">
         <f t="shared" si="1"/>
-        <v>4.7677001066070943</v>
+        <v>4.7704385398691329</v>
       </c>
       <c r="AY4">
         <f t="shared" si="1"/>
-        <v>3.5919627388377648</v>
+        <v>3.5940872153331611</v>
       </c>
       <c r="AZ4">
         <f t="shared" si="1"/>
-        <v>2.7030550672462823</v>
+        <v>2.7046986931929951</v>
       </c>
       <c r="BA4">
         <f t="shared" si="1"/>
-        <v>2.0323626547423146</v>
+        <v>2.0336314619308951</v>
       </c>
       <c r="BB4" s="21">
         <f t="shared" si="1"/>
-        <v>1.5270873784597825</v>
+        <v>1.5280650979221946</v>
       </c>
       <c r="BC4">
         <f t="shared" si="1"/>
-        <v>1.1468675153373624</v>
+        <v>1.1476198316553337</v>
       </c>
       <c r="BD4">
         <f t="shared" si="1"/>
-        <v>0.86099830542946165</v>
+        <v>0.86157648564960709</v>
       </c>
       <c r="BE4">
         <f t="shared" si="1"/>
-        <v>0.64620590125707622</v>
+        <v>0.64664980269651551</v>
       </c>
       <c r="BF4">
         <f t="shared" si="1"/>
-        <v>0.48489658566222715</v>
+        <v>0.48523710012727861</v>
       </c>
       <c r="BG4">
         <f t="shared" si="1"/>
-        <v>0.36379729503607905</v>
+        <v>0.36405830733906441</v>
       </c>
       <c r="BH4">
         <f t="shared" si="1"/>
-        <v>0.27290963965242554</v>
+        <v>0.27310958096938975</v>
       </c>
       <c r="BI4">
         <f t="shared" si="1"/>
-        <v>0.2047104789696732</v>
+        <v>0.20486354953561658</v>
       </c>
       <c r="BJ4">
         <f t="shared" si="1"/>
-        <v>0.15354391373386989</v>
+        <v>0.15366103976975864</v>
       </c>
       <c r="BK4">
         <f t="shared" si="1"/>
-        <v>0.11516052461240633</v>
+        <v>0.11525010398213453</v>
       </c>
       <c r="BL4" s="21">
         <f t="shared" si="1"/>
-        <v>8.6369127783996191E-2</v>
+        <v>8.6437609055678877E-2</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
@@ -19481,7 +20497,7 @@
       </c>
       <c r="F5">
         <f>SUM(J5:AH5)</f>
-        <v>4722.49715568803</v>
+        <v>4722.4992960117534</v>
       </c>
       <c r="I5">
         <f>(I6-I2)^2</f>
@@ -19489,103 +20505,103 @@
       </c>
       <c r="J5">
         <f>(J6-J2)^2</f>
-        <v>6.1767808009901017</v>
+        <v>6.1778681277119549</v>
       </c>
       <c r="K5">
         <f>(K6-K2)^2</f>
-        <v>15.574022259603106</v>
+        <v>15.577602979967624</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:AH5" si="2">(L6-L2)^2</f>
-        <v>28.826983351803698</v>
+        <v>28.834495165559698</v>
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>44.96583396718998</v>
+        <v>44.978545890138385</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>22.562184168497382</v>
+        <v>22.573448231231627</v>
       </c>
       <c r="O5">
         <f t="shared" si="2"/>
-        <v>64.435840154064692</v>
+        <v>64.458223544870634</v>
       </c>
       <c r="P5">
         <f t="shared" si="2"/>
-        <v>46.204984375529293</v>
+        <v>46.226024703507079</v>
       </c>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>142.86446865027608</v>
+        <v>142.9029827088761</v>
       </c>
       <c r="R5">
         <f t="shared" si="2"/>
-        <v>84.316887538884828</v>
+        <v>84.345168835873395</v>
       </c>
       <c r="S5">
         <f t="shared" si="2"/>
-        <v>200.13205064218272</v>
+        <v>200.16822377315825</v>
       </c>
       <c r="T5">
         <f t="shared" si="2"/>
-        <v>217.09549796692963</v>
+        <v>217.11793139786948</v>
       </c>
       <c r="U5">
         <f t="shared" si="2"/>
-        <v>163.17934858791455</v>
+        <v>163.17720472256045</v>
       </c>
       <c r="V5">
         <f t="shared" si="2"/>
-        <v>41.185613886787358</v>
+        <v>41.168563680603413</v>
       </c>
       <c r="W5">
         <f t="shared" si="2"/>
-        <v>12.594721900972711</v>
+        <v>12.57322624810347</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>16.166389503758094</v>
+        <v>16.208303886975255</v>
       </c>
       <c r="Y5">
         <f t="shared" si="2"/>
-        <v>550.71874293059295</v>
+        <v>551.08582555242936</v>
       </c>
       <c r="Z5">
         <f t="shared" si="2"/>
-        <v>701.48005096313432</v>
+        <v>702.0474315384995</v>
       </c>
       <c r="AA5">
         <f t="shared" si="2"/>
-        <v>954.56033038417468</v>
+        <v>955.39908110216345</v>
       </c>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>163.59472605405114</v>
+        <v>163.18799741014439</v>
       </c>
       <c r="AC5">
         <f t="shared" si="2"/>
-        <v>193.49865777200236</v>
+        <v>193.02524527160307</v>
       </c>
       <c r="AD5">
         <f t="shared" si="2"/>
-        <v>435.20784488089873</v>
+        <v>434.53818722563994</v>
       </c>
       <c r="AE5">
         <f t="shared" si="2"/>
-        <v>127.44036845067862</v>
+        <v>127.71290572658276</v>
       </c>
       <c r="AF5">
         <f t="shared" si="2"/>
-        <v>96.299946879295305</v>
+        <v>96.21708586458449</v>
       </c>
       <c r="AG5">
         <f t="shared" si="2"/>
-        <v>129.27259132507635</v>
+        <v>129.45429687752628</v>
       </c>
       <c r="AH5">
         <f t="shared" si="2"/>
-        <v>264.14228829274214</v>
+        <v>263.34342554557446</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
@@ -19597,223 +20613,223 @@
       </c>
       <c r="J6">
         <f>I6+J4</f>
-        <v>11.689913679310123</v>
+        <v>11.690132420141985</v>
       </c>
       <c r="K6">
         <f>J6+K4</f>
-        <v>15.964210046146349</v>
+        <v>15.964663690024292</v>
       </c>
       <c r="L6">
         <f t="shared" ref="L6:BL6" si="3">K6+L4</f>
-        <v>21.290336850589341</v>
+        <v>21.291036349315213</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>27.921830869824959</v>
+        <v>27.922778653533083</v>
       </c>
       <c r="N6">
         <f>M6+N4</f>
-        <v>36.170401318593278</v>
+        <v>36.171586869754464</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>46.417645737880186</v>
+        <v>46.419039839472234</v>
       </c>
       <c r="P6">
         <f t="shared" si="3"/>
-        <v>59.128206820828446</v>
+        <v>59.129754313721484</v>
       </c>
       <c r="Q6">
         <f t="shared" si="3"/>
-        <v>74.863987851012979</v>
+        <v>74.865598859800059</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>94.298615177138785</v>
+        <v>94.300155017258021</v>
       </c>
       <c r="S6">
         <f t="shared" si="3"/>
-        <v>118.23068330646446</v>
+        <v>118.23196174001515</v>
       </c>
       <c r="T6">
         <f t="shared" si="3"/>
-        <v>147.59337694834812</v>
+        <v>147.59413820145096</v>
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>183.45678781685086</v>
+        <v>183.45670390248071</v>
       </c>
       <c r="V6">
         <f t="shared" si="3"/>
-        <v>227.01764703373249</v>
+        <v>227.01631850233562</v>
       </c>
       <c r="W6">
         <f t="shared" si="3"/>
-        <v>279.56943062308659</v>
+        <v>279.56640083832747</v>
       </c>
       <c r="X6">
         <f t="shared" si="3"/>
-        <v>342.44427704393746</v>
+        <v>342.43906815208214</v>
       </c>
       <c r="Y6">
         <f t="shared" si="3"/>
-        <v>416.9176945334093</v>
+        <v>416.90987471714845</v>
       </c>
       <c r="Z6">
         <f t="shared" si="3"/>
-        <v>504.06895267557792</v>
+        <v>504.0582436732268</v>
       </c>
       <c r="AA6">
         <f t="shared" si="3"/>
-        <v>604.59609123722419</v>
+        <v>604.58252042477557</v>
       </c>
       <c r="AB6">
         <f t="shared" si="3"/>
-        <v>718.59627618683794</v>
+        <v>718.58036654872899</v>
       </c>
       <c r="AC6">
         <f t="shared" si="3"/>
-        <v>845.34006777964078</v>
+        <v>845.32304083881615</v>
       </c>
       <c r="AD6">
         <f t="shared" si="3"/>
-        <v>983.08903112858582</v>
+        <v>983.07297497017862</v>
       </c>
       <c r="AE6">
         <f t="shared" si="3"/>
-        <v>1129.0220000900938</v>
+        <v>1129.0099355602526</v>
       </c>
       <c r="AF6">
         <f t="shared" si="3"/>
-        <v>1279.3337893445319</v>
+        <v>1279.3295665429077</v>
       </c>
       <c r="AG6">
         <f t="shared" si="3"/>
-        <v>1429.539856789379</v>
+        <v>1429.5478446861689</v>
       </c>
       <c r="AH6">
         <f t="shared" si="3"/>
-        <v>1574.9610573803288</v>
+        <v>1574.9856526701903</v>
       </c>
       <c r="AI6">
         <f t="shared" si="3"/>
-        <v>1711.2933767509467</v>
+        <v>1711.3384322178067</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="3"/>
-        <v>1835.1230333131602</v>
+        <v>1835.1913521330782</v>
       </c>
       <c r="AK6">
         <f t="shared" si="3"/>
-        <v>1944.2570912440772</v>
+        <v>1944.3501203239498</v>
       </c>
       <c r="AL6">
         <f t="shared" si="3"/>
-        <v>2037.8040568765759</v>
+        <v>2037.921841862878</v>
       </c>
       <c r="AM6">
         <f t="shared" si="3"/>
-        <v>2116.0247256843527</v>
+        <v>2116.1661005198512</v>
       </c>
       <c r="AN6">
         <f t="shared" si="3"/>
-        <v>2180.0373192405127</v>
+        <v>2180.2002396857288</v>
       </c>
       <c r="AO6">
         <f t="shared" si="3"/>
-        <v>2231.4788006493231</v>
+        <v>2231.6607161695438</v>
       </c>
       <c r="AP6">
         <f t="shared" si="3"/>
-        <v>2272.2022911873432</v>
+        <v>2272.4004741447598</v>
       </c>
       <c r="AQ6">
         <f t="shared" si="3"/>
-        <v>2304.0518482961829</v>
+        <v>2304.2636392108161</v>
       </c>
       <c r="AR6" s="21">
         <f t="shared" si="3"/>
-        <v>2328.7215599483361</v>
+        <v>2328.9445221347491</v>
       </c>
       <c r="AS6">
         <f t="shared" si="3"/>
-        <v>2347.6854425840415</v>
+        <v>2347.9174400416809</v>
       </c>
       <c r="AT6">
         <f t="shared" si="3"/>
-        <v>2362.1774151571421</v>
+        <v>2362.4166350751675</v>
       </c>
       <c r="AU6">
         <f t="shared" si="3"/>
-        <v>2373.2017483131376</v>
+        <v>2373.4466887493318</v>
       </c>
       <c r="AV6">
         <f t="shared" si="3"/>
-        <v>2381.5590189813702</v>
+        <v>2381.8084578459111</v>
       </c>
       <c r="AW6">
         <f t="shared" si="3"/>
-        <v>2387.8776656811197</v>
+        <v>2388.1306220992778</v>
       </c>
       <c r="AX6">
         <f t="shared" si="3"/>
-        <v>2392.6453657877269</v>
+        <v>2392.9010606391471</v>
       </c>
       <c r="AY6">
         <f t="shared" si="3"/>
-        <v>2396.2373285265649</v>
+        <v>2396.4951478544804</v>
       </c>
       <c r="AZ6">
         <f t="shared" si="3"/>
-        <v>2398.940383593811</v>
+        <v>2399.1998465476736</v>
       </c>
       <c r="BA6">
         <f t="shared" si="3"/>
-        <v>2400.9727462485534</v>
+        <v>2401.2334780096044</v>
       </c>
       <c r="BB6" s="21">
         <f t="shared" si="3"/>
-        <v>2402.4998336270132</v>
+        <v>2402.7615431075264</v>
       </c>
       <c r="BC6">
         <f t="shared" si="3"/>
-        <v>2403.6467011423506</v>
+        <v>2403.9091629391819</v>
       </c>
       <c r="BD6">
         <f t="shared" si="3"/>
-        <v>2404.5076994477799</v>
+        <v>2404.7707394248314</v>
       </c>
       <c r="BE6">
         <f t="shared" si="3"/>
-        <v>2405.1539053490369</v>
+        <v>2405.417389227528</v>
       </c>
       <c r="BF6">
         <f t="shared" si="3"/>
-        <v>2405.6388019346991</v>
+        <v>2405.9026263276555</v>
       </c>
       <c r="BG6">
         <f t="shared" si="3"/>
-        <v>2406.0025992297351</v>
+        <v>2406.2666846349948</v>
       </c>
       <c r="BH6">
         <f t="shared" si="3"/>
-        <v>2406.2755088693875</v>
+        <v>2406.5397942159643</v>
       </c>
       <c r="BI6">
         <f t="shared" si="3"/>
-        <v>2406.4802193483574</v>
+        <v>2406.7446577655001</v>
       </c>
       <c r="BJ6">
         <f t="shared" si="3"/>
-        <v>2406.6337632620912</v>
+        <v>2406.8983188052698</v>
       </c>
       <c r="BK6">
         <f t="shared" si="3"/>
-        <v>2406.7489237867035</v>
+        <v>2407.0135689092522</v>
       </c>
       <c r="BL6" s="21">
         <f t="shared" si="3"/>
-        <v>2406.8352929144876</v>
+        <v>2407.100006518308</v>
       </c>
     </row>
     <row r="7" spans="1:65" x14ac:dyDescent="0.25">
@@ -19990,15 +21006,15 @@
     <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="AR8" s="21">
         <f>AR6/AR7*100</f>
-        <v>7.0266707046515275</v>
+        <v>7.0273434694382075</v>
       </c>
       <c r="BB8" s="21">
         <f>BB6/BB7*100</f>
-        <v>6.165261741937476</v>
+        <v>6.1659333371755389</v>
       </c>
       <c r="BL8" s="21">
         <f>BL6/BL7*100</f>
-        <v>5.3729411152789481</v>
+        <v>5.3735320533501687</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
@@ -20007,7 +21023,7 @@
       </c>
       <c r="Q11">
         <f>C4</f>
-        <v>2407.0943191544611</v>
+        <v>2407.3592536598408</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
